--- a/E2TGST/Resources/PurchaseEntries.xlsx
+++ b/E2TGST/Resources/PurchaseEntries.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GST-Tally-Helper\E2TGST\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dineshkumar\Projects\Excel-to-Tally-for-GST\E2TGST\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAF912FC-520A-4B80-854C-EC0867277C1A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase Entries" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>GSTN</t>
   </si>
@@ -84,11 +83,14 @@
   <si>
     <t>Journal</t>
   </si>
+  <si>
+    <t>Place of Supply</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +154,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <protection locked="0" hidden="0"/>
@@ -222,21 +228,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L1000" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L1000" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="GSTN" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Invoice No" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Invoice Date" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Invoice Value" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GST Rate" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Taxable Value" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IGST" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CGST" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="SGST" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CESS" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Ledger Name" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Voucher Type" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M1000" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M1000"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="GSTN" dataDxfId="12"/>
+    <tableColumn id="2" name="Invoice No" dataDxfId="11"/>
+    <tableColumn id="3" name="Invoice Date" dataDxfId="10"/>
+    <tableColumn id="4" name="Invoice Value" dataDxfId="9"/>
+    <tableColumn id="5" name="GST Rate" dataDxfId="8"/>
+    <tableColumn id="6" name="Taxable Value" dataDxfId="7"/>
+    <tableColumn id="7" name="IGST" dataDxfId="6"/>
+    <tableColumn id="8" name="CGST" dataDxfId="5"/>
+    <tableColumn id="9" name="SGST" dataDxfId="4"/>
+    <tableColumn id="10" name="CESS" dataDxfId="3"/>
+    <tableColumn id="11" name="Ledger Name" dataDxfId="2"/>
+    <tableColumn id="12" name="Voucher Type" dataDxfId="1"/>
+    <tableColumn id="13" name="Place of Supply" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,12 +511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="PurchaseEntries"/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +532,11 @@
     <col min="9" max="10" width="9.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="13" max="13" width="19" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -565,9 +573,3009 @@
       <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M106" s="4"/>
+    </row>
+    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M107" s="4"/>
+    </row>
+    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M108" s="4"/>
+    </row>
+    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M109" s="4"/>
+    </row>
+    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M110" s="4"/>
+    </row>
+    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M113" s="4"/>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M116" s="4"/>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M117" s="4"/>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M118" s="4"/>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M119" s="4"/>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M120" s="4"/>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M121" s="4"/>
+    </row>
+    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M122" s="4"/>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M123" s="4"/>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M124" s="4"/>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M125" s="4"/>
+    </row>
+    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M126" s="4"/>
+    </row>
+    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M127" s="4"/>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M128" s="4"/>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M129" s="4"/>
+    </row>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M130" s="4"/>
+    </row>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M131" s="4"/>
+    </row>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M132" s="4"/>
+    </row>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M134" s="4"/>
+    </row>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M135" s="4"/>
+    </row>
+    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M136" s="4"/>
+    </row>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M137" s="4"/>
+    </row>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M138" s="4"/>
+    </row>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M139" s="4"/>
+    </row>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M140" s="4"/>
+    </row>
+    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M141" s="4"/>
+    </row>
+    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M142" s="4"/>
+    </row>
+    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M143" s="4"/>
+    </row>
+    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M144" s="4"/>
+    </row>
+    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M145" s="4"/>
+    </row>
+    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M146" s="4"/>
+    </row>
+    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M147" s="4"/>
+    </row>
+    <row r="148" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M148" s="4"/>
+    </row>
+    <row r="149" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M149" s="4"/>
+    </row>
+    <row r="150" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M150" s="4"/>
+    </row>
+    <row r="151" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M151" s="4"/>
+    </row>
+    <row r="152" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M152" s="4"/>
+    </row>
+    <row r="153" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M153" s="4"/>
+    </row>
+    <row r="154" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M154" s="4"/>
+    </row>
+    <row r="155" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M155" s="4"/>
+    </row>
+    <row r="156" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M156" s="4"/>
+    </row>
+    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M157" s="4"/>
+    </row>
+    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M158" s="4"/>
+    </row>
+    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M159" s="4"/>
+    </row>
+    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M160" s="4"/>
+    </row>
+    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M161" s="4"/>
+    </row>
+    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M162" s="4"/>
+    </row>
+    <row r="163" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M163" s="4"/>
+    </row>
+    <row r="164" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M164" s="4"/>
+    </row>
+    <row r="165" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M165" s="4"/>
+    </row>
+    <row r="166" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M166" s="4"/>
+    </row>
+    <row r="167" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M167" s="4"/>
+    </row>
+    <row r="168" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M168" s="4"/>
+    </row>
+    <row r="169" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M169" s="4"/>
+    </row>
+    <row r="170" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M170" s="4"/>
+    </row>
+    <row r="171" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M171" s="4"/>
+    </row>
+    <row r="172" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M172" s="4"/>
+    </row>
+    <row r="173" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M173" s="4"/>
+    </row>
+    <row r="174" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M174" s="4"/>
+    </row>
+    <row r="175" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M175" s="4"/>
+    </row>
+    <row r="176" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M176" s="4"/>
+    </row>
+    <row r="177" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M177" s="4"/>
+    </row>
+    <row r="178" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M178" s="4"/>
+    </row>
+    <row r="179" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M179" s="4"/>
+    </row>
+    <row r="180" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M180" s="4"/>
+    </row>
+    <row r="181" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M181" s="4"/>
+    </row>
+    <row r="182" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M182" s="4"/>
+    </row>
+    <row r="183" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M183" s="4"/>
+    </row>
+    <row r="184" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M184" s="4"/>
+    </row>
+    <row r="185" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M185" s="4"/>
+    </row>
+    <row r="186" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M186" s="4"/>
+    </row>
+    <row r="187" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M187" s="4"/>
+    </row>
+    <row r="188" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M188" s="4"/>
+    </row>
+    <row r="189" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M189" s="4"/>
+    </row>
+    <row r="190" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M190" s="4"/>
+    </row>
+    <row r="191" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M191" s="4"/>
+    </row>
+    <row r="192" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M192" s="4"/>
+    </row>
+    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M193" s="4"/>
+    </row>
+    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M194" s="4"/>
+    </row>
+    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M195" s="4"/>
+    </row>
+    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M196" s="4"/>
+    </row>
+    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M197" s="4"/>
+    </row>
+    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M198" s="4"/>
+    </row>
+    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M199" s="4"/>
+    </row>
+    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M200" s="4"/>
+    </row>
+    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M201" s="4"/>
+    </row>
+    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M202" s="4"/>
+    </row>
+    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M203" s="4"/>
+    </row>
+    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M204" s="4"/>
+    </row>
+    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M205" s="4"/>
+    </row>
+    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M206" s="4"/>
+    </row>
+    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M207" s="4"/>
+    </row>
+    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M208" s="4"/>
+    </row>
+    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M209" s="4"/>
+    </row>
+    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M210" s="4"/>
+    </row>
+    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M211" s="4"/>
+    </row>
+    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M212" s="4"/>
+    </row>
+    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M213" s="4"/>
+    </row>
+    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M214" s="4"/>
+    </row>
+    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M215" s="4"/>
+    </row>
+    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M216" s="4"/>
+    </row>
+    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M217" s="4"/>
+    </row>
+    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M218" s="4"/>
+    </row>
+    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M219" s="4"/>
+    </row>
+    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M220" s="4"/>
+    </row>
+    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M221" s="4"/>
+    </row>
+    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M222" s="4"/>
+    </row>
+    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M223" s="4"/>
+    </row>
+    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M224" s="4"/>
+    </row>
+    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M225" s="4"/>
+    </row>
+    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M226" s="4"/>
+    </row>
+    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M227" s="4"/>
+    </row>
+    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M228" s="4"/>
+    </row>
+    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M229" s="4"/>
+    </row>
+    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M230" s="4"/>
+    </row>
+    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M231" s="4"/>
+    </row>
+    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M232" s="4"/>
+    </row>
+    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M233" s="4"/>
+    </row>
+    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M234" s="4"/>
+    </row>
+    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M235" s="4"/>
+    </row>
+    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M236" s="4"/>
+    </row>
+    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M237" s="4"/>
+    </row>
+    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M238" s="4"/>
+    </row>
+    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M239" s="4"/>
+    </row>
+    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M240" s="4"/>
+    </row>
+    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M241" s="4"/>
+    </row>
+    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M242" s="4"/>
+    </row>
+    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M243" s="4"/>
+    </row>
+    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M244" s="4"/>
+    </row>
+    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M245" s="4"/>
+    </row>
+    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M246" s="4"/>
+    </row>
+    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M247" s="4"/>
+    </row>
+    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M248" s="4"/>
+    </row>
+    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M249" s="4"/>
+    </row>
+    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M250" s="4"/>
+    </row>
+    <row r="251" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M251" s="4"/>
+    </row>
+    <row r="252" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M252" s="4"/>
+    </row>
+    <row r="253" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M253" s="4"/>
+    </row>
+    <row r="254" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M254" s="4"/>
+    </row>
+    <row r="255" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M255" s="4"/>
+    </row>
+    <row r="256" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M256" s="4"/>
+    </row>
+    <row r="257" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M257" s="4"/>
+    </row>
+    <row r="258" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M258" s="4"/>
+    </row>
+    <row r="259" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M259" s="4"/>
+    </row>
+    <row r="260" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M260" s="4"/>
+    </row>
+    <row r="261" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M261" s="4"/>
+    </row>
+    <row r="262" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M262" s="4"/>
+    </row>
+    <row r="263" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M263" s="4"/>
+    </row>
+    <row r="264" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M264" s="4"/>
+    </row>
+    <row r="265" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M265" s="4"/>
+    </row>
+    <row r="266" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M266" s="4"/>
+    </row>
+    <row r="267" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M267" s="4"/>
+    </row>
+    <row r="268" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M268" s="4"/>
+    </row>
+    <row r="269" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M269" s="4"/>
+    </row>
+    <row r="270" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M270" s="4"/>
+    </row>
+    <row r="271" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M271" s="4"/>
+    </row>
+    <row r="272" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M272" s="4"/>
+    </row>
+    <row r="273" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M273" s="4"/>
+    </row>
+    <row r="274" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M274" s="4"/>
+    </row>
+    <row r="275" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M275" s="4"/>
+    </row>
+    <row r="276" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M276" s="4"/>
+    </row>
+    <row r="277" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M277" s="4"/>
+    </row>
+    <row r="278" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M278" s="4"/>
+    </row>
+    <row r="279" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M279" s="4"/>
+    </row>
+    <row r="280" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M280" s="4"/>
+    </row>
+    <row r="281" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M281" s="4"/>
+    </row>
+    <row r="282" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M282" s="4"/>
+    </row>
+    <row r="283" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M283" s="4"/>
+    </row>
+    <row r="284" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M284" s="4"/>
+    </row>
+    <row r="285" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M285" s="4"/>
+    </row>
+    <row r="286" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M286" s="4"/>
+    </row>
+    <row r="287" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M287" s="4"/>
+    </row>
+    <row r="288" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M288" s="4"/>
+    </row>
+    <row r="289" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M289" s="4"/>
+    </row>
+    <row r="290" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M290" s="4"/>
+    </row>
+    <row r="291" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M291" s="4"/>
+    </row>
+    <row r="292" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M292" s="4"/>
+    </row>
+    <row r="293" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M293" s="4"/>
+    </row>
+    <row r="294" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M294" s="4"/>
+    </row>
+    <row r="295" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M295" s="4"/>
+    </row>
+    <row r="296" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M296" s="4"/>
+    </row>
+    <row r="297" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M297" s="4"/>
+    </row>
+    <row r="298" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M298" s="4"/>
+    </row>
+    <row r="299" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M299" s="4"/>
+    </row>
+    <row r="300" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M300" s="4"/>
+    </row>
+    <row r="301" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M301" s="4"/>
+    </row>
+    <row r="302" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M302" s="4"/>
+    </row>
+    <row r="303" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M303" s="4"/>
+    </row>
+    <row r="304" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M304" s="4"/>
+    </row>
+    <row r="305" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M305" s="4"/>
+    </row>
+    <row r="306" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M306" s="4"/>
+    </row>
+    <row r="307" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M307" s="4"/>
+    </row>
+    <row r="308" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M308" s="4"/>
+    </row>
+    <row r="309" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M309" s="4"/>
+    </row>
+    <row r="310" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M310" s="4"/>
+    </row>
+    <row r="311" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M311" s="4"/>
+    </row>
+    <row r="312" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M312" s="4"/>
+    </row>
+    <row r="313" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M313" s="4"/>
+    </row>
+    <row r="314" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M314" s="4"/>
+    </row>
+    <row r="315" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M315" s="4"/>
+    </row>
+    <row r="316" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M316" s="4"/>
+    </row>
+    <row r="317" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M317" s="4"/>
+    </row>
+    <row r="318" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M318" s="4"/>
+    </row>
+    <row r="319" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M319" s="4"/>
+    </row>
+    <row r="320" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M320" s="4"/>
+    </row>
+    <row r="321" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M321" s="4"/>
+    </row>
+    <row r="322" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M322" s="4"/>
+    </row>
+    <row r="323" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M323" s="4"/>
+    </row>
+    <row r="324" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M324" s="4"/>
+    </row>
+    <row r="325" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M325" s="4"/>
+    </row>
+    <row r="326" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M326" s="4"/>
+    </row>
+    <row r="327" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M327" s="4"/>
+    </row>
+    <row r="328" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M328" s="4"/>
+    </row>
+    <row r="329" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M329" s="4"/>
+    </row>
+    <row r="330" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M330" s="4"/>
+    </row>
+    <row r="331" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M331" s="4"/>
+    </row>
+    <row r="332" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M332" s="4"/>
+    </row>
+    <row r="333" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M333" s="4"/>
+    </row>
+    <row r="334" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M334" s="4"/>
+    </row>
+    <row r="335" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M335" s="4"/>
+    </row>
+    <row r="336" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M336" s="4"/>
+    </row>
+    <row r="337" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M337" s="4"/>
+    </row>
+    <row r="338" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M338" s="4"/>
+    </row>
+    <row r="339" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M339" s="4"/>
+    </row>
+    <row r="340" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M340" s="4"/>
+    </row>
+    <row r="341" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M341" s="4"/>
+    </row>
+    <row r="342" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M342" s="4"/>
+    </row>
+    <row r="343" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M343" s="4"/>
+    </row>
+    <row r="344" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M344" s="4"/>
+    </row>
+    <row r="345" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M345" s="4"/>
+    </row>
+    <row r="346" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M346" s="4"/>
+    </row>
+    <row r="347" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M347" s="4"/>
+    </row>
+    <row r="348" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M348" s="4"/>
+    </row>
+    <row r="349" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M349" s="4"/>
+    </row>
+    <row r="350" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M350" s="4"/>
+    </row>
+    <row r="351" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M351" s="4"/>
+    </row>
+    <row r="352" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M352" s="4"/>
+    </row>
+    <row r="353" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M353" s="4"/>
+    </row>
+    <row r="354" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M354" s="4"/>
+    </row>
+    <row r="355" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M355" s="4"/>
+    </row>
+    <row r="356" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M356" s="4"/>
+    </row>
+    <row r="357" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M357" s="4"/>
+    </row>
+    <row r="358" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M358" s="4"/>
+    </row>
+    <row r="359" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M359" s="4"/>
+    </row>
+    <row r="360" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M360" s="4"/>
+    </row>
+    <row r="361" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M361" s="4"/>
+    </row>
+    <row r="362" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M362" s="4"/>
+    </row>
+    <row r="363" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M363" s="4"/>
+    </row>
+    <row r="364" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M364" s="4"/>
+    </row>
+    <row r="365" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M365" s="4"/>
+    </row>
+    <row r="366" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M366" s="4"/>
+    </row>
+    <row r="367" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M367" s="4"/>
+    </row>
+    <row r="368" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M368" s="4"/>
+    </row>
+    <row r="369" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M369" s="4"/>
+    </row>
+    <row r="370" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M370" s="4"/>
+    </row>
+    <row r="371" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M371" s="4"/>
+    </row>
+    <row r="372" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M372" s="4"/>
+    </row>
+    <row r="373" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M373" s="4"/>
+    </row>
+    <row r="374" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M374" s="4"/>
+    </row>
+    <row r="375" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M375" s="4"/>
+    </row>
+    <row r="376" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M376" s="4"/>
+    </row>
+    <row r="377" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M377" s="4"/>
+    </row>
+    <row r="378" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M378" s="4"/>
+    </row>
+    <row r="379" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M379" s="4"/>
+    </row>
+    <row r="380" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M380" s="4"/>
+    </row>
+    <row r="381" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M381" s="4"/>
+    </row>
+    <row r="382" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M382" s="4"/>
+    </row>
+    <row r="383" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M383" s="4"/>
+    </row>
+    <row r="384" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M384" s="4"/>
+    </row>
+    <row r="385" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M385" s="4"/>
+    </row>
+    <row r="386" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M386" s="4"/>
+    </row>
+    <row r="387" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M387" s="4"/>
+    </row>
+    <row r="388" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M388" s="4"/>
+    </row>
+    <row r="389" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M389" s="4"/>
+    </row>
+    <row r="390" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M390" s="4"/>
+    </row>
+    <row r="391" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M391" s="4"/>
+    </row>
+    <row r="392" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M392" s="4"/>
+    </row>
+    <row r="393" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M393" s="4"/>
+    </row>
+    <row r="394" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M394" s="4"/>
+    </row>
+    <row r="395" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M395" s="4"/>
+    </row>
+    <row r="396" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M396" s="4"/>
+    </row>
+    <row r="397" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M397" s="4"/>
+    </row>
+    <row r="398" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M398" s="4"/>
+    </row>
+    <row r="399" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M399" s="4"/>
+    </row>
+    <row r="400" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M400" s="4"/>
+    </row>
+    <row r="401" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M401" s="4"/>
+    </row>
+    <row r="402" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M402" s="4"/>
+    </row>
+    <row r="403" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M403" s="4"/>
+    </row>
+    <row r="404" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M404" s="4"/>
+    </row>
+    <row r="405" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M405" s="4"/>
+    </row>
+    <row r="406" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M406" s="4"/>
+    </row>
+    <row r="407" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M407" s="4"/>
+    </row>
+    <row r="408" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M408" s="4"/>
+    </row>
+    <row r="409" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M409" s="4"/>
+    </row>
+    <row r="410" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M410" s="4"/>
+    </row>
+    <row r="411" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M411" s="4"/>
+    </row>
+    <row r="412" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M412" s="4"/>
+    </row>
+    <row r="413" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M413" s="4"/>
+    </row>
+    <row r="414" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M414" s="4"/>
+    </row>
+    <row r="415" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M415" s="4"/>
+    </row>
+    <row r="416" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M416" s="4"/>
+    </row>
+    <row r="417" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M417" s="4"/>
+    </row>
+    <row r="418" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M418" s="4"/>
+    </row>
+    <row r="419" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M419" s="4"/>
+    </row>
+    <row r="420" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M420" s="4"/>
+    </row>
+    <row r="421" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M421" s="4"/>
+    </row>
+    <row r="422" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M422" s="4"/>
+    </row>
+    <row r="423" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M423" s="4"/>
+    </row>
+    <row r="424" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M424" s="4"/>
+    </row>
+    <row r="425" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M425" s="4"/>
+    </row>
+    <row r="426" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M426" s="4"/>
+    </row>
+    <row r="427" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M427" s="4"/>
+    </row>
+    <row r="428" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M428" s="4"/>
+    </row>
+    <row r="429" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M429" s="4"/>
+    </row>
+    <row r="430" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M430" s="4"/>
+    </row>
+    <row r="431" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M431" s="4"/>
+    </row>
+    <row r="432" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M432" s="4"/>
+    </row>
+    <row r="433" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M433" s="4"/>
+    </row>
+    <row r="434" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M434" s="4"/>
+    </row>
+    <row r="435" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M435" s="4"/>
+    </row>
+    <row r="436" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M436" s="4"/>
+    </row>
+    <row r="437" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M437" s="4"/>
+    </row>
+    <row r="438" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M438" s="4"/>
+    </row>
+    <row r="439" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M439" s="4"/>
+    </row>
+    <row r="440" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M440" s="4"/>
+    </row>
+    <row r="441" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M441" s="4"/>
+    </row>
+    <row r="442" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M442" s="4"/>
+    </row>
+    <row r="443" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M443" s="4"/>
+    </row>
+    <row r="444" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M444" s="4"/>
+    </row>
+    <row r="445" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M445" s="4"/>
+    </row>
+    <row r="446" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M446" s="4"/>
+    </row>
+    <row r="447" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M447" s="4"/>
+    </row>
+    <row r="448" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M448" s="4"/>
+    </row>
+    <row r="449" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M449" s="4"/>
+    </row>
+    <row r="450" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M450" s="4"/>
+    </row>
+    <row r="451" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M451" s="4"/>
+    </row>
+    <row r="452" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M452" s="4"/>
+    </row>
+    <row r="453" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M453" s="4"/>
+    </row>
+    <row r="454" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M454" s="4"/>
+    </row>
+    <row r="455" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M455" s="4"/>
+    </row>
+    <row r="456" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M456" s="4"/>
+    </row>
+    <row r="457" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M457" s="4"/>
+    </row>
+    <row r="458" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M458" s="4"/>
+    </row>
+    <row r="459" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M459" s="4"/>
+    </row>
+    <row r="460" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M460" s="4"/>
+    </row>
+    <row r="461" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M461" s="4"/>
+    </row>
+    <row r="462" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M462" s="4"/>
+    </row>
+    <row r="463" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M463" s="4"/>
+    </row>
+    <row r="464" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M464" s="4"/>
+    </row>
+    <row r="465" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M465" s="4"/>
+    </row>
+    <row r="466" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M466" s="4"/>
+    </row>
+    <row r="467" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M467" s="4"/>
+    </row>
+    <row r="468" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M468" s="4"/>
+    </row>
+    <row r="469" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M469" s="4"/>
+    </row>
+    <row r="470" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M470" s="4"/>
+    </row>
+    <row r="471" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M471" s="4"/>
+    </row>
+    <row r="472" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M472" s="4"/>
+    </row>
+    <row r="473" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M473" s="4"/>
+    </row>
+    <row r="474" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M474" s="4"/>
+    </row>
+    <row r="475" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M475" s="4"/>
+    </row>
+    <row r="476" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M476" s="4"/>
+    </row>
+    <row r="477" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M477" s="4"/>
+    </row>
+    <row r="478" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M478" s="4"/>
+    </row>
+    <row r="479" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M479" s="4"/>
+    </row>
+    <row r="480" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M480" s="4"/>
+    </row>
+    <row r="481" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M481" s="4"/>
+    </row>
+    <row r="482" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M482" s="4"/>
+    </row>
+    <row r="483" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M483" s="4"/>
+    </row>
+    <row r="484" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M484" s="4"/>
+    </row>
+    <row r="485" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M485" s="4"/>
+    </row>
+    <row r="486" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M486" s="4"/>
+    </row>
+    <row r="487" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M487" s="4"/>
+    </row>
+    <row r="488" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M488" s="4"/>
+    </row>
+    <row r="489" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M489" s="4"/>
+    </row>
+    <row r="490" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M490" s="4"/>
+    </row>
+    <row r="491" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M491" s="4"/>
+    </row>
+    <row r="492" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M492" s="4"/>
+    </row>
+    <row r="493" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M493" s="4"/>
+    </row>
+    <row r="494" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M494" s="4"/>
+    </row>
+    <row r="495" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M495" s="4"/>
+    </row>
+    <row r="496" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M496" s="4"/>
+    </row>
+    <row r="497" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M497" s="4"/>
+    </row>
+    <row r="498" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M498" s="4"/>
+    </row>
+    <row r="499" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M499" s="4"/>
+    </row>
+    <row r="500" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M500" s="4"/>
+    </row>
+    <row r="501" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M501" s="4"/>
+    </row>
+    <row r="502" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M502" s="4"/>
+    </row>
+    <row r="503" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M503" s="4"/>
+    </row>
+    <row r="504" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M504" s="4"/>
+    </row>
+    <row r="505" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M505" s="4"/>
+    </row>
+    <row r="506" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M506" s="4"/>
+    </row>
+    <row r="507" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M507" s="4"/>
+    </row>
+    <row r="508" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M508" s="4"/>
+    </row>
+    <row r="509" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M509" s="4"/>
+    </row>
+    <row r="510" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M510" s="4"/>
+    </row>
+    <row r="511" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M511" s="4"/>
+    </row>
+    <row r="512" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M512" s="4"/>
+    </row>
+    <row r="513" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M513" s="4"/>
+    </row>
+    <row r="514" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M514" s="4"/>
+    </row>
+    <row r="515" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M515" s="4"/>
+    </row>
+    <row r="516" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M516" s="4"/>
+    </row>
+    <row r="517" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M517" s="4"/>
+    </row>
+    <row r="518" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M518" s="4"/>
+    </row>
+    <row r="519" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M519" s="4"/>
+    </row>
+    <row r="520" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M520" s="4"/>
+    </row>
+    <row r="521" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M521" s="4"/>
+    </row>
+    <row r="522" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M522" s="4"/>
+    </row>
+    <row r="523" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M523" s="4"/>
+    </row>
+    <row r="524" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M524" s="4"/>
+    </row>
+    <row r="525" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M525" s="4"/>
+    </row>
+    <row r="526" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M526" s="4"/>
+    </row>
+    <row r="527" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M527" s="4"/>
+    </row>
+    <row r="528" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M528" s="4"/>
+    </row>
+    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M529" s="4"/>
+    </row>
+    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M530" s="4"/>
+    </row>
+    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M531" s="4"/>
+    </row>
+    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M532" s="4"/>
+    </row>
+    <row r="533" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M533" s="4"/>
+    </row>
+    <row r="534" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M534" s="4"/>
+    </row>
+    <row r="535" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M535" s="4"/>
+    </row>
+    <row r="536" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M536" s="4"/>
+    </row>
+    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M537" s="4"/>
+    </row>
+    <row r="538" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M538" s="4"/>
+    </row>
+    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M539" s="4"/>
+    </row>
+    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M540" s="4"/>
+    </row>
+    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M541" s="4"/>
+    </row>
+    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M542" s="4"/>
+    </row>
+    <row r="543" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M543" s="4"/>
+    </row>
+    <row r="544" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M544" s="4"/>
+    </row>
+    <row r="545" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M545" s="4"/>
+    </row>
+    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M546" s="4"/>
+    </row>
+    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M547" s="4"/>
+    </row>
+    <row r="548" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M548" s="4"/>
+    </row>
+    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M549" s="4"/>
+    </row>
+    <row r="550" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M550" s="4"/>
+    </row>
+    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M551" s="4"/>
+    </row>
+    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M552" s="4"/>
+    </row>
+    <row r="553" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M553" s="4"/>
+    </row>
+    <row r="554" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M554" s="4"/>
+    </row>
+    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M555" s="4"/>
+    </row>
+    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M556" s="4"/>
+    </row>
+    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M557" s="4"/>
+    </row>
+    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M558" s="4"/>
+    </row>
+    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M559" s="4"/>
+    </row>
+    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M560" s="4"/>
+    </row>
+    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M561" s="4"/>
+    </row>
+    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M562" s="4"/>
+    </row>
+    <row r="563" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M563" s="4"/>
+    </row>
+    <row r="564" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M564" s="4"/>
+    </row>
+    <row r="565" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M565" s="4"/>
+    </row>
+    <row r="566" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M566" s="4"/>
+    </row>
+    <row r="567" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M567" s="4"/>
+    </row>
+    <row r="568" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M568" s="4"/>
+    </row>
+    <row r="569" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M569" s="4"/>
+    </row>
+    <row r="570" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M570" s="4"/>
+    </row>
+    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M571" s="4"/>
+    </row>
+    <row r="572" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M572" s="4"/>
+    </row>
+    <row r="573" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M573" s="4"/>
+    </row>
+    <row r="574" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M574" s="4"/>
+    </row>
+    <row r="575" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M575" s="4"/>
+    </row>
+    <row r="576" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M576" s="4"/>
+    </row>
+    <row r="577" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M577" s="4"/>
+    </row>
+    <row r="578" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M578" s="4"/>
+    </row>
+    <row r="579" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M579" s="4"/>
+    </row>
+    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M580" s="4"/>
+    </row>
+    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M581" s="4"/>
+    </row>
+    <row r="582" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M582" s="4"/>
+    </row>
+    <row r="583" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M583" s="4"/>
+    </row>
+    <row r="584" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M584" s="4"/>
+    </row>
+    <row r="585" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M585" s="4"/>
+    </row>
+    <row r="586" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M586" s="4"/>
+    </row>
+    <row r="587" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M587" s="4"/>
+    </row>
+    <row r="588" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M588" s="4"/>
+    </row>
+    <row r="589" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M589" s="4"/>
+    </row>
+    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M590" s="4"/>
+    </row>
+    <row r="591" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M591" s="4"/>
+    </row>
+    <row r="592" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M592" s="4"/>
+    </row>
+    <row r="593" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M593" s="4"/>
+    </row>
+    <row r="594" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M594" s="4"/>
+    </row>
+    <row r="595" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M595" s="4"/>
+    </row>
+    <row r="596" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M596" s="4"/>
+    </row>
+    <row r="597" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M597" s="4"/>
+    </row>
+    <row r="598" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M598" s="4"/>
+    </row>
+    <row r="599" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M599" s="4"/>
+    </row>
+    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M600" s="4"/>
+    </row>
+    <row r="601" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M601" s="4"/>
+    </row>
+    <row r="602" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M602" s="4"/>
+    </row>
+    <row r="603" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M603" s="4"/>
+    </row>
+    <row r="604" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M604" s="4"/>
+    </row>
+    <row r="605" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M605" s="4"/>
+    </row>
+    <row r="606" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M606" s="4"/>
+    </row>
+    <row r="607" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M607" s="4"/>
+    </row>
+    <row r="608" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M608" s="4"/>
+    </row>
+    <row r="609" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M609" s="4"/>
+    </row>
+    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M610" s="4"/>
+    </row>
+    <row r="611" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M611" s="4"/>
+    </row>
+    <row r="612" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M612" s="4"/>
+    </row>
+    <row r="613" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M613" s="4"/>
+    </row>
+    <row r="614" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M614" s="4"/>
+    </row>
+    <row r="615" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M615" s="4"/>
+    </row>
+    <row r="616" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M616" s="4"/>
+    </row>
+    <row r="617" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M617" s="4"/>
+    </row>
+    <row r="618" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M618" s="4"/>
+    </row>
+    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M619" s="4"/>
+    </row>
+    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M620" s="4"/>
+    </row>
+    <row r="621" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M621" s="4"/>
+    </row>
+    <row r="622" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M622" s="4"/>
+    </row>
+    <row r="623" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M623" s="4"/>
+    </row>
+    <row r="624" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M624" s="4"/>
+    </row>
+    <row r="625" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M625" s="4"/>
+    </row>
+    <row r="626" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M626" s="4"/>
+    </row>
+    <row r="627" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M627" s="4"/>
+    </row>
+    <row r="628" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M628" s="4"/>
+    </row>
+    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M629" s="4"/>
+    </row>
+    <row r="630" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M630" s="4"/>
+    </row>
+    <row r="631" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M631" s="4"/>
+    </row>
+    <row r="632" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M632" s="4"/>
+    </row>
+    <row r="633" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M633" s="4"/>
+    </row>
+    <row r="634" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M634" s="4"/>
+    </row>
+    <row r="635" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M635" s="4"/>
+    </row>
+    <row r="636" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M636" s="4"/>
+    </row>
+    <row r="637" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M637" s="4"/>
+    </row>
+    <row r="638" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M638" s="4"/>
+    </row>
+    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M639" s="4"/>
+    </row>
+    <row r="640" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M640" s="4"/>
+    </row>
+    <row r="641" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M641" s="4"/>
+    </row>
+    <row r="642" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M642" s="4"/>
+    </row>
+    <row r="643" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M643" s="4"/>
+    </row>
+    <row r="644" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M644" s="4"/>
+    </row>
+    <row r="645" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M645" s="4"/>
+    </row>
+    <row r="646" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M646" s="4"/>
+    </row>
+    <row r="647" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M647" s="4"/>
+    </row>
+    <row r="648" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M648" s="4"/>
+    </row>
+    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M649" s="4"/>
+    </row>
+    <row r="650" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M650" s="4"/>
+    </row>
+    <row r="651" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M651" s="4"/>
+    </row>
+    <row r="652" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M652" s="4"/>
+    </row>
+    <row r="653" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M653" s="4"/>
+    </row>
+    <row r="654" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M654" s="4"/>
+    </row>
+    <row r="655" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M655" s="4"/>
+    </row>
+    <row r="656" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M656" s="4"/>
+    </row>
+    <row r="657" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M657" s="4"/>
+    </row>
+    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M658" s="4"/>
+    </row>
+    <row r="659" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M659" s="4"/>
+    </row>
+    <row r="660" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M660" s="4"/>
+    </row>
+    <row r="661" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M661" s="4"/>
+    </row>
+    <row r="662" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M662" s="4"/>
+    </row>
+    <row r="663" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M663" s="4"/>
+    </row>
+    <row r="664" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M664" s="4"/>
+    </row>
+    <row r="665" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M665" s="4"/>
+    </row>
+    <row r="666" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M666" s="4"/>
+    </row>
+    <row r="667" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M667" s="4"/>
+    </row>
+    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M668" s="4"/>
+    </row>
+    <row r="669" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M669" s="4"/>
+    </row>
+    <row r="670" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M670" s="4"/>
+    </row>
+    <row r="671" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M671" s="4"/>
+    </row>
+    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M672" s="4"/>
+    </row>
+    <row r="673" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M673" s="4"/>
+    </row>
+    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M674" s="4"/>
+    </row>
+    <row r="675" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M675" s="4"/>
+    </row>
+    <row r="676" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M676" s="4"/>
+    </row>
+    <row r="677" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M677" s="4"/>
+    </row>
+    <row r="678" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M678" s="4"/>
+    </row>
+    <row r="679" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M679" s="4"/>
+    </row>
+    <row r="680" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M680" s="4"/>
+    </row>
+    <row r="681" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M681" s="4"/>
+    </row>
+    <row r="682" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M682" s="4"/>
+    </row>
+    <row r="683" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M683" s="4"/>
+    </row>
+    <row r="684" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M684" s="4"/>
+    </row>
+    <row r="685" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M685" s="4"/>
+    </row>
+    <row r="686" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M686" s="4"/>
+    </row>
+    <row r="687" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M687" s="4"/>
+    </row>
+    <row r="688" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M688" s="4"/>
+    </row>
+    <row r="689" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M689" s="4"/>
+    </row>
+    <row r="690" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M690" s="4"/>
+    </row>
+    <row r="691" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M691" s="4"/>
+    </row>
+    <row r="692" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M692" s="4"/>
+    </row>
+    <row r="693" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M693" s="4"/>
+    </row>
+    <row r="694" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M694" s="4"/>
+    </row>
+    <row r="695" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M695" s="4"/>
+    </row>
+    <row r="696" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M696" s="4"/>
+    </row>
+    <row r="697" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M697" s="4"/>
+    </row>
+    <row r="698" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M698" s="4"/>
+    </row>
+    <row r="699" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M699" s="4"/>
+    </row>
+    <row r="700" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M700" s="4"/>
+    </row>
+    <row r="701" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M701" s="4"/>
+    </row>
+    <row r="702" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M702" s="4"/>
+    </row>
+    <row r="703" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M703" s="4"/>
+    </row>
+    <row r="704" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M704" s="4"/>
+    </row>
+    <row r="705" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M705" s="4"/>
+    </row>
+    <row r="706" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M706" s="4"/>
+    </row>
+    <row r="707" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M707" s="4"/>
+    </row>
+    <row r="708" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M708" s="4"/>
+    </row>
+    <row r="709" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M709" s="4"/>
+    </row>
+    <row r="710" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M710" s="4"/>
+    </row>
+    <row r="711" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M711" s="4"/>
+    </row>
+    <row r="712" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M712" s="4"/>
+    </row>
+    <row r="713" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M713" s="4"/>
+    </row>
+    <row r="714" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M714" s="4"/>
+    </row>
+    <row r="715" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M715" s="4"/>
+    </row>
+    <row r="716" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M716" s="4"/>
+    </row>
+    <row r="717" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M717" s="4"/>
+    </row>
+    <row r="718" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M718" s="4"/>
+    </row>
+    <row r="719" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M719" s="4"/>
+    </row>
+    <row r="720" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M720" s="4"/>
+    </row>
+    <row r="721" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M721" s="4"/>
+    </row>
+    <row r="722" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M722" s="4"/>
+    </row>
+    <row r="723" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M723" s="4"/>
+    </row>
+    <row r="724" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M724" s="4"/>
+    </row>
+    <row r="725" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M725" s="4"/>
+    </row>
+    <row r="726" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M726" s="4"/>
+    </row>
+    <row r="727" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M727" s="4"/>
+    </row>
+    <row r="728" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M728" s="4"/>
+    </row>
+    <row r="729" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M729" s="4"/>
+    </row>
+    <row r="730" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M730" s="4"/>
+    </row>
+    <row r="731" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M731" s="4"/>
+    </row>
+    <row r="732" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M732" s="4"/>
+    </row>
+    <row r="733" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M733" s="4"/>
+    </row>
+    <row r="734" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M734" s="4"/>
+    </row>
+    <row r="735" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M735" s="4"/>
+    </row>
+    <row r="736" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M736" s="4"/>
+    </row>
+    <row r="737" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M737" s="4"/>
+    </row>
+    <row r="738" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M738" s="4"/>
+    </row>
+    <row r="739" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M739" s="4"/>
+    </row>
+    <row r="740" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M740" s="4"/>
+    </row>
+    <row r="741" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M741" s="4"/>
+    </row>
+    <row r="742" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M742" s="4"/>
+    </row>
+    <row r="743" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M743" s="4"/>
+    </row>
+    <row r="744" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M744" s="4"/>
+    </row>
+    <row r="745" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M745" s="4"/>
+    </row>
+    <row r="746" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M746" s="4"/>
+    </row>
+    <row r="747" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M747" s="4"/>
+    </row>
+    <row r="748" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M748" s="4"/>
+    </row>
+    <row r="749" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M749" s="4"/>
+    </row>
+    <row r="750" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M750" s="4"/>
+    </row>
+    <row r="751" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M751" s="4"/>
+    </row>
+    <row r="752" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M752" s="4"/>
+    </row>
+    <row r="753" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M753" s="4"/>
+    </row>
+    <row r="754" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M754" s="4"/>
+    </row>
+    <row r="755" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M755" s="4"/>
+    </row>
+    <row r="756" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M756" s="4"/>
+    </row>
+    <row r="757" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M757" s="4"/>
+    </row>
+    <row r="758" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M758" s="4"/>
+    </row>
+    <row r="759" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M759" s="4"/>
+    </row>
+    <row r="760" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M760" s="4"/>
+    </row>
+    <row r="761" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M761" s="4"/>
+    </row>
+    <row r="762" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M762" s="4"/>
+    </row>
+    <row r="763" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M763" s="4"/>
+    </row>
+    <row r="764" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M764" s="4"/>
+    </row>
+    <row r="765" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M765" s="4"/>
+    </row>
+    <row r="766" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M766" s="4"/>
+    </row>
+    <row r="767" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M767" s="4"/>
+    </row>
+    <row r="768" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M768" s="4"/>
+    </row>
+    <row r="769" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M769" s="4"/>
+    </row>
+    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M770" s="4"/>
+    </row>
+    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M771" s="4"/>
+    </row>
+    <row r="772" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M772" s="4"/>
+    </row>
+    <row r="773" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M773" s="4"/>
+    </row>
+    <row r="774" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M774" s="4"/>
+    </row>
+    <row r="775" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M775" s="4"/>
+    </row>
+    <row r="776" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M776" s="4"/>
+    </row>
+    <row r="777" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M777" s="4"/>
+    </row>
+    <row r="778" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M778" s="4"/>
+    </row>
+    <row r="779" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M779" s="4"/>
+    </row>
+    <row r="780" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M780" s="4"/>
+    </row>
+    <row r="781" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M781" s="4"/>
+    </row>
+    <row r="782" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M782" s="4"/>
+    </row>
+    <row r="783" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M783" s="4"/>
+    </row>
+    <row r="784" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M784" s="4"/>
+    </row>
+    <row r="785" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M785" s="4"/>
+    </row>
+    <row r="786" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M786" s="4"/>
+    </row>
+    <row r="787" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M787" s="4"/>
+    </row>
+    <row r="788" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M788" s="4"/>
+    </row>
+    <row r="789" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M789" s="4"/>
+    </row>
+    <row r="790" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M790" s="4"/>
+    </row>
+    <row r="791" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M791" s="4"/>
+    </row>
+    <row r="792" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M792" s="4"/>
+    </row>
+    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M793" s="4"/>
+    </row>
+    <row r="794" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M794" s="4"/>
+    </row>
+    <row r="795" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M795" s="4"/>
+    </row>
+    <row r="796" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M796" s="4"/>
+    </row>
+    <row r="797" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M797" s="4"/>
+    </row>
+    <row r="798" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M798" s="4"/>
+    </row>
+    <row r="799" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M799" s="4"/>
+    </row>
+    <row r="800" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M800" s="4"/>
+    </row>
+    <row r="801" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M801" s="4"/>
+    </row>
+    <row r="802" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M802" s="4"/>
+    </row>
+    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M803" s="4"/>
+    </row>
+    <row r="804" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M804" s="4"/>
+    </row>
+    <row r="805" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M805" s="4"/>
+    </row>
+    <row r="806" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M806" s="4"/>
+    </row>
+    <row r="807" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M807" s="4"/>
+    </row>
+    <row r="808" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M808" s="4"/>
+    </row>
+    <row r="809" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M809" s="4"/>
+    </row>
+    <row r="810" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M810" s="4"/>
+    </row>
+    <row r="811" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M811" s="4"/>
+    </row>
+    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M812" s="4"/>
+    </row>
+    <row r="813" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M813" s="4"/>
+    </row>
+    <row r="814" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M814" s="4"/>
+    </row>
+    <row r="815" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M815" s="4"/>
+    </row>
+    <row r="816" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M816" s="4"/>
+    </row>
+    <row r="817" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M817" s="4"/>
+    </row>
+    <row r="818" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M818" s="4"/>
+    </row>
+    <row r="819" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M819" s="4"/>
+    </row>
+    <row r="820" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M820" s="4"/>
+    </row>
+    <row r="821" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M821" s="4"/>
+    </row>
+    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M822" s="4"/>
+    </row>
+    <row r="823" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M823" s="4"/>
+    </row>
+    <row r="824" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M824" s="4"/>
+    </row>
+    <row r="825" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M825" s="4"/>
+    </row>
+    <row r="826" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M826" s="4"/>
+    </row>
+    <row r="827" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M827" s="4"/>
+    </row>
+    <row r="828" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M828" s="4"/>
+    </row>
+    <row r="829" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M829" s="4"/>
+    </row>
+    <row r="830" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M830" s="4"/>
+    </row>
+    <row r="831" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M831" s="4"/>
+    </row>
+    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M832" s="4"/>
+    </row>
+    <row r="833" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M833" s="4"/>
+    </row>
+    <row r="834" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M834" s="4"/>
+    </row>
+    <row r="835" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M835" s="4"/>
+    </row>
+    <row r="836" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M836" s="4"/>
+    </row>
+    <row r="837" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M837" s="4"/>
+    </row>
+    <row r="838" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M838" s="4"/>
+    </row>
+    <row r="839" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M839" s="4"/>
+    </row>
+    <row r="840" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M840" s="4"/>
+    </row>
+    <row r="841" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M841" s="4"/>
+    </row>
+    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M842" s="4"/>
+    </row>
+    <row r="843" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M843" s="4"/>
+    </row>
+    <row r="844" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M844" s="4"/>
+    </row>
+    <row r="845" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M845" s="4"/>
+    </row>
+    <row r="846" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M846" s="4"/>
+    </row>
+    <row r="847" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M847" s="4"/>
+    </row>
+    <row r="848" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M848" s="4"/>
+    </row>
+    <row r="849" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M849" s="4"/>
+    </row>
+    <row r="850" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M850" s="4"/>
+    </row>
+    <row r="851" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M851" s="4"/>
+    </row>
+    <row r="852" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M852" s="4"/>
+    </row>
+    <row r="853" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M853" s="4"/>
+    </row>
+    <row r="854" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M854" s="4"/>
+    </row>
+    <row r="855" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M855" s="4"/>
+    </row>
+    <row r="856" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M856" s="4"/>
+    </row>
+    <row r="857" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M857" s="4"/>
+    </row>
+    <row r="858" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M858" s="4"/>
+    </row>
+    <row r="859" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M859" s="4"/>
+    </row>
+    <row r="860" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M860" s="4"/>
+    </row>
+    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M861" s="4"/>
+    </row>
+    <row r="862" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M862" s="4"/>
+    </row>
+    <row r="863" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M863" s="4"/>
+    </row>
+    <row r="864" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M864" s="4"/>
+    </row>
+    <row r="865" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M865" s="4"/>
+    </row>
+    <row r="866" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M866" s="4"/>
+    </row>
+    <row r="867" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M867" s="4"/>
+    </row>
+    <row r="868" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M868" s="4"/>
+    </row>
+    <row r="869" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M869" s="4"/>
+    </row>
+    <row r="870" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M870" s="4"/>
+    </row>
+    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M871" s="4"/>
+    </row>
+    <row r="872" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M872" s="4"/>
+    </row>
+    <row r="873" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M873" s="4"/>
+    </row>
+    <row r="874" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M874" s="4"/>
+    </row>
+    <row r="875" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M875" s="4"/>
+    </row>
+    <row r="876" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M876" s="4"/>
+    </row>
+    <row r="877" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M877" s="4"/>
+    </row>
+    <row r="878" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M878" s="4"/>
+    </row>
+    <row r="879" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M879" s="4"/>
+    </row>
+    <row r="880" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M880" s="4"/>
+    </row>
+    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M881" s="4"/>
+    </row>
+    <row r="882" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M882" s="4"/>
+    </row>
+    <row r="883" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M883" s="4"/>
+    </row>
+    <row r="884" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M884" s="4"/>
+    </row>
+    <row r="885" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M885" s="4"/>
+    </row>
+    <row r="886" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M886" s="4"/>
+    </row>
+    <row r="887" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M887" s="4"/>
+    </row>
+    <row r="888" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M888" s="4"/>
+    </row>
+    <row r="889" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M889" s="4"/>
+    </row>
+    <row r="890" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M890" s="4"/>
+    </row>
+    <row r="891" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M891" s="4"/>
+    </row>
+    <row r="892" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M892" s="4"/>
+    </row>
+    <row r="893" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M893" s="4"/>
+    </row>
+    <row r="894" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M894" s="4"/>
+    </row>
+    <row r="895" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M895" s="4"/>
+    </row>
+    <row r="896" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M896" s="4"/>
+    </row>
+    <row r="897" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M897" s="4"/>
+    </row>
+    <row r="898" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M898" s="4"/>
+    </row>
+    <row r="899" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M899" s="4"/>
+    </row>
+    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M900" s="4"/>
+    </row>
+    <row r="901" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M901" s="4"/>
+    </row>
+    <row r="902" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M902" s="4"/>
+    </row>
+    <row r="903" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M903" s="4"/>
+    </row>
+    <row r="904" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M904" s="4"/>
+    </row>
+    <row r="905" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M905" s="4"/>
+    </row>
+    <row r="906" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M906" s="4"/>
+    </row>
+    <row r="907" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M907" s="4"/>
+    </row>
+    <row r="908" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M908" s="4"/>
+    </row>
+    <row r="909" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M909" s="4"/>
+    </row>
+    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M910" s="4"/>
+    </row>
+    <row r="911" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M911" s="4"/>
+    </row>
+    <row r="912" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M912" s="4"/>
+    </row>
+    <row r="913" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M913" s="4"/>
+    </row>
+    <row r="914" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M914" s="4"/>
+    </row>
+    <row r="915" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M915" s="4"/>
+    </row>
+    <row r="916" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M916" s="4"/>
+    </row>
+    <row r="917" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M917" s="4"/>
+    </row>
+    <row r="918" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M918" s="4"/>
+    </row>
+    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M919" s="4"/>
+    </row>
+    <row r="920" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M920" s="4"/>
+    </row>
+    <row r="921" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M921" s="4"/>
+    </row>
+    <row r="922" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M922" s="4"/>
+    </row>
+    <row r="923" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M923" s="4"/>
+    </row>
+    <row r="924" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M924" s="4"/>
+    </row>
+    <row r="925" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M925" s="4"/>
+    </row>
+    <row r="926" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M926" s="4"/>
+    </row>
+    <row r="927" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M927" s="4"/>
+    </row>
+    <row r="928" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M928" s="4"/>
+    </row>
+    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M929" s="4"/>
+    </row>
+    <row r="930" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M930" s="4"/>
+    </row>
+    <row r="931" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M931" s="4"/>
+    </row>
+    <row r="932" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M932" s="4"/>
+    </row>
+    <row r="933" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M933" s="4"/>
+    </row>
+    <row r="934" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M934" s="4"/>
+    </row>
+    <row r="935" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M935" s="4"/>
+    </row>
+    <row r="936" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M936" s="4"/>
+    </row>
+    <row r="937" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M937" s="4"/>
+    </row>
+    <row r="938" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M938" s="4"/>
+    </row>
+    <row r="939" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M939" s="4"/>
+    </row>
+    <row r="940" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M940" s="4"/>
+    </row>
+    <row r="941" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M941" s="4"/>
+    </row>
+    <row r="942" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M942" s="4"/>
+    </row>
+    <row r="943" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M943" s="4"/>
+    </row>
+    <row r="944" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M944" s="4"/>
+    </row>
+    <row r="945" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M945" s="4"/>
+    </row>
+    <row r="946" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M946" s="4"/>
+    </row>
+    <row r="947" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M947" s="4"/>
+    </row>
+    <row r="948" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M948" s="4"/>
+    </row>
+    <row r="949" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M949" s="4"/>
+    </row>
+    <row r="950" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M950" s="4"/>
+    </row>
+    <row r="951" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M951" s="4"/>
+    </row>
+    <row r="952" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M952" s="4"/>
+    </row>
+    <row r="953" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M953" s="4"/>
+    </row>
+    <row r="954" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M954" s="4"/>
+    </row>
+    <row r="955" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M955" s="4"/>
+    </row>
+    <row r="956" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M956" s="4"/>
+    </row>
+    <row r="957" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M957" s="4"/>
+    </row>
+    <row r="958" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M958" s="4"/>
+    </row>
+    <row r="959" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M959" s="4"/>
+    </row>
+    <row r="960" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M960" s="4"/>
+    </row>
+    <row r="961" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M961" s="4"/>
+    </row>
+    <row r="962" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M962" s="4"/>
+    </row>
+    <row r="963" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M963" s="4"/>
+    </row>
+    <row r="964" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M964" s="4"/>
+    </row>
+    <row r="965" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M965" s="4"/>
+    </row>
+    <row r="966" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M966" s="4"/>
+    </row>
+    <row r="967" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M967" s="4"/>
+    </row>
+    <row r="968" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M968" s="4"/>
+    </row>
+    <row r="969" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M969" s="4"/>
+    </row>
+    <row r="970" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M970" s="4"/>
+    </row>
+    <row r="971" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M971" s="4"/>
+    </row>
+    <row r="972" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M972" s="4"/>
+    </row>
+    <row r="973" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M973" s="4"/>
+    </row>
+    <row r="974" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M974" s="4"/>
+    </row>
+    <row r="975" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M975" s="4"/>
+    </row>
+    <row r="976" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M976" s="4"/>
+    </row>
+    <row r="977" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M977" s="4"/>
+    </row>
+    <row r="978" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M978" s="4"/>
+    </row>
+    <row r="979" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M979" s="4"/>
+    </row>
+    <row r="980" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M980" s="4"/>
+    </row>
+    <row r="981" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M981" s="4"/>
+    </row>
+    <row r="982" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M982" s="4"/>
+    </row>
+    <row r="983" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M983" s="4"/>
+    </row>
+    <row r="984" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M984" s="4"/>
+    </row>
+    <row r="985" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M985" s="4"/>
+    </row>
+    <row r="986" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M986" s="4"/>
+    </row>
+    <row r="987" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M987" s="4"/>
+    </row>
+    <row r="988" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M988" s="4"/>
+    </row>
+    <row r="989" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M989" s="4"/>
+    </row>
+    <row r="990" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M990" s="4"/>
+    </row>
+    <row r="991" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M991" s="4"/>
+    </row>
+    <row r="992" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M992" s="4"/>
+    </row>
+    <row r="993" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M993" s="4"/>
+    </row>
+    <row r="994" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M994" s="4"/>
+    </row>
+    <row r="995" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M995" s="4"/>
+    </row>
+    <row r="996" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M996" s="4"/>
+    </row>
+    <row r="997" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M997" s="4"/>
+    </row>
+    <row r="998" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M998" s="4"/>
+    </row>
+    <row r="999" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M999" s="4"/>
+    </row>
+    <row r="1000" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M1000" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ocd4riPAZ/QaBoY9vBEfso2ZATL+GjAiJxLwFtZrkl5Cbbo92zLWcVAQC1jN76+S4LbqJfaLMF/RFQwy+ujJmA==" saltValue="5MlJw1JggxlQ7XMb08uhyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="K2PsfzFVkmXXoY67eMHjHpnRgohaQ8XlZ2RmNTuwB142bqMZLG9jFAUM8amEk3iLpB0VxzuFhyznWWoAJ/G0VQ==" saltValue="PqOH78f29XIe1XO+tilzLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -576,13 +3584,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L1000</xm:sqref>
+          <xm:sqref>L2:M1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -595,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lists"/>
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/E2TGST/Resources/PurchaseEntries.xlsx
+++ b/E2TGST/Resources/PurchaseEntries.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dineshkumar\Projects\Excel-to-Tally-for-GST\E2TGST\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Excel-to-Tally-for-GST\E2TGST\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B860959-8642-45B3-A339-EC02EC46D01E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase Entries" sheetId="1" r:id="rId1"/>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,22 +229,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M1000" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M1000"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M1000" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M1000" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="GSTN" dataDxfId="12"/>
-    <tableColumn id="2" name="Invoice No" dataDxfId="11"/>
-    <tableColumn id="3" name="Invoice Date" dataDxfId="10"/>
-    <tableColumn id="4" name="Invoice Value" dataDxfId="9"/>
-    <tableColumn id="5" name="GST Rate" dataDxfId="8"/>
-    <tableColumn id="6" name="Taxable Value" dataDxfId="7"/>
-    <tableColumn id="7" name="IGST" dataDxfId="6"/>
-    <tableColumn id="8" name="CGST" dataDxfId="5"/>
-    <tableColumn id="9" name="SGST" dataDxfId="4"/>
-    <tableColumn id="10" name="CESS" dataDxfId="3"/>
-    <tableColumn id="11" name="Ledger Name" dataDxfId="2"/>
-    <tableColumn id="12" name="Voucher Type" dataDxfId="1"/>
-    <tableColumn id="13" name="Place of Supply" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="GSTN" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Invoice No" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Invoice Date" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Invoice Value" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GST Rate" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Taxable Value" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IGST" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CGST" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="SGST" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CESS" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Ledger Name" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Voucher Type" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Place of Supply" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -511,12 +512,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="PurchaseEntries"/>
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3575,7 +3576,7 @@
       <c r="M1000" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K2PsfzFVkmXXoY67eMHjHpnRgohaQ8XlZ2RmNTuwB142bqMZLG9jFAUM8amEk3iLpB0VxzuFhyznWWoAJ/G0VQ==" saltValue="PqOH78f29XIe1XO+tilzLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6zROMAbTTrWBB0qRd9yN252e4FQhD0rbxi7s1keNNR5Y9d1IF0STevxf36zoPu5s0tmLTVOk/KQJyqfk9i8Dcw==" saltValue="KnAEldUfaD4K4gTXK5hsAQ==" spinCount="100000" sheet="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -3584,13 +3585,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:M1000</xm:sqref>
+          <xm:sqref>L2:L1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -3603,7 +3604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Lists"/>
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/E2TGST/Resources/PurchaseEntries.xlsx
+++ b/E2TGST/Resources/PurchaseEntries.xlsx
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -201,22 +201,28 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -500,10 +506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="PurchaseEntries"/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,141 +572,4116 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="18"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="18"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="18"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="18"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="18"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="18"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="18"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="18"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="16"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="16"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="16"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="16"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="16"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="16"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="16"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="16"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="16"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="16"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="16"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="16"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="16"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="16"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="16"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="16"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="16"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="16"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="16"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="16"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="16"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="16"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="16"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="16"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="16"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="16"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="16"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="16"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="16"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="16"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="16"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="16"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="16"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="16"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="16"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="16"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="16"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="16"/>
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="16"/>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="16"/>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="16"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="16"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="16"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="16"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="16"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="16"/>
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="16"/>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="16"/>
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="16"/>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="16"/>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="16"/>
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="16"/>
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="16"/>
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E65" s="16"/>
+      <c r="L65" s="13"/>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E66" s="16"/>
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E67" s="16"/>
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E68" s="16"/>
+      <c r="L68" s="13"/>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E69" s="16"/>
+      <c r="L69" s="13"/>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E70" s="16"/>
+      <c r="L70" s="13"/>
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E71" s="16"/>
+      <c r="L71" s="13"/>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E72" s="16"/>
+      <c r="L72" s="13"/>
+    </row>
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E73" s="16"/>
+      <c r="L73" s="13"/>
+    </row>
+    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E74" s="16"/>
+      <c r="L74" s="13"/>
+    </row>
+    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E75" s="16"/>
+      <c r="L75" s="13"/>
+    </row>
+    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E76" s="16"/>
+      <c r="L76" s="13"/>
+    </row>
+    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E77" s="16"/>
+      <c r="L77" s="13"/>
+    </row>
+    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E78" s="16"/>
+      <c r="L78" s="13"/>
+    </row>
+    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E79" s="16"/>
+      <c r="L79" s="13"/>
+    </row>
+    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E80" s="16"/>
+      <c r="L80" s="13"/>
+    </row>
+    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E81" s="16"/>
+      <c r="L81" s="13"/>
+    </row>
+    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E82" s="16"/>
+      <c r="L82" s="13"/>
+    </row>
+    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E83" s="16"/>
+      <c r="L83" s="13"/>
+    </row>
+    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E84" s="16"/>
+      <c r="L84" s="13"/>
+    </row>
+    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E85" s="16"/>
+      <c r="L85" s="13"/>
+    </row>
+    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E86" s="16"/>
+      <c r="L86" s="13"/>
+    </row>
+    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E87" s="16"/>
+      <c r="L87" s="13"/>
+    </row>
+    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E88" s="16"/>
+      <c r="L88" s="13"/>
+    </row>
+    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E89" s="16"/>
+      <c r="L89" s="13"/>
+    </row>
+    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E90" s="16"/>
+      <c r="L90" s="13"/>
+    </row>
+    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E91" s="16"/>
+      <c r="L91" s="13"/>
+    </row>
+    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E92" s="16"/>
+      <c r="L92" s="13"/>
+    </row>
+    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E93" s="16"/>
+      <c r="L93" s="13"/>
+    </row>
+    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E94" s="16"/>
+      <c r="L94" s="13"/>
+    </row>
+    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E95" s="16"/>
+      <c r="L95" s="13"/>
+    </row>
+    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E96" s="16"/>
+      <c r="L96" s="13"/>
+    </row>
+    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E97" s="16"/>
+      <c r="L97" s="13"/>
+    </row>
+    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E98" s="16"/>
+      <c r="L98" s="13"/>
+    </row>
+    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E99" s="16"/>
+      <c r="L99" s="13"/>
+    </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E100" s="16"/>
+      <c r="L100" s="13"/>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E101" s="16"/>
+      <c r="L101" s="13"/>
+    </row>
+    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E102" s="16"/>
+      <c r="L102" s="13"/>
+    </row>
+    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E103" s="16"/>
+      <c r="L103" s="13"/>
+    </row>
+    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E104" s="16"/>
+      <c r="L104" s="13"/>
+    </row>
+    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E105" s="16"/>
+      <c r="L105" s="13"/>
+    </row>
+    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E106" s="16"/>
+      <c r="L106" s="13"/>
+    </row>
+    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E107" s="16"/>
+      <c r="L107" s="13"/>
+    </row>
+    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E108" s="16"/>
+      <c r="L108" s="13"/>
+    </row>
+    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E109" s="16"/>
+      <c r="L109" s="13"/>
+    </row>
+    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E110" s="16"/>
+      <c r="L110" s="13"/>
+    </row>
+    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E111" s="16"/>
+      <c r="L111" s="13"/>
+    </row>
+    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E112" s="16"/>
+      <c r="L112" s="13"/>
+    </row>
+    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E113" s="16"/>
+      <c r="L113" s="13"/>
+    </row>
+    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E114" s="16"/>
+      <c r="L114" s="13"/>
+    </row>
+    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E115" s="16"/>
+      <c r="L115" s="13"/>
+    </row>
+    <row r="116" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E116" s="16"/>
+      <c r="L116" s="13"/>
+    </row>
+    <row r="117" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E117" s="16"/>
+      <c r="L117" s="13"/>
+    </row>
+    <row r="118" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E118" s="16"/>
+      <c r="L118" s="13"/>
+    </row>
+    <row r="119" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E119" s="16"/>
+      <c r="L119" s="13"/>
+    </row>
+    <row r="120" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E120" s="16"/>
+      <c r="L120" s="13"/>
+    </row>
+    <row r="121" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E121" s="16"/>
+      <c r="L121" s="13"/>
+    </row>
+    <row r="122" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E122" s="16"/>
+      <c r="L122" s="13"/>
+    </row>
+    <row r="123" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E123" s="16"/>
+      <c r="L123" s="13"/>
+    </row>
+    <row r="124" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E124" s="16"/>
+      <c r="L124" s="13"/>
+    </row>
+    <row r="125" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E125" s="16"/>
+      <c r="L125" s="13"/>
+    </row>
+    <row r="126" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E126" s="16"/>
+      <c r="L126" s="13"/>
+    </row>
+    <row r="127" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E127" s="16"/>
+      <c r="L127" s="13"/>
+    </row>
+    <row r="128" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E128" s="16"/>
+      <c r="L128" s="13"/>
+    </row>
+    <row r="129" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E129" s="16"/>
+      <c r="L129" s="13"/>
+    </row>
+    <row r="130" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E130" s="16"/>
+      <c r="L130" s="13"/>
+    </row>
+    <row r="131" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E131" s="16"/>
+      <c r="L131" s="13"/>
+    </row>
+    <row r="132" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E132" s="16"/>
+      <c r="L132" s="13"/>
+    </row>
+    <row r="133" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E133" s="16"/>
+      <c r="L133" s="13"/>
+    </row>
+    <row r="134" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E134" s="16"/>
+      <c r="L134" s="13"/>
+    </row>
+    <row r="135" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E135" s="16"/>
+      <c r="L135" s="13"/>
+    </row>
+    <row r="136" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E136" s="16"/>
+      <c r="L136" s="13"/>
+    </row>
+    <row r="137" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E137" s="16"/>
+      <c r="L137" s="13"/>
+    </row>
+    <row r="138" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E138" s="16"/>
+      <c r="L138" s="13"/>
+    </row>
+    <row r="139" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E139" s="16"/>
+      <c r="L139" s="13"/>
+    </row>
+    <row r="140" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E140" s="16"/>
+      <c r="L140" s="13"/>
+    </row>
+    <row r="141" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E141" s="16"/>
+      <c r="L141" s="13"/>
+    </row>
+    <row r="142" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E142" s="16"/>
+      <c r="L142" s="13"/>
+    </row>
+    <row r="143" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E143" s="16"/>
+      <c r="L143" s="13"/>
+    </row>
+    <row r="144" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E144" s="16"/>
+      <c r="L144" s="13"/>
+    </row>
+    <row r="145" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E145" s="16"/>
+      <c r="L145" s="13"/>
+    </row>
+    <row r="146" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E146" s="16"/>
+      <c r="L146" s="13"/>
+    </row>
+    <row r="147" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E147" s="16"/>
+      <c r="L147" s="13"/>
+    </row>
+    <row r="148" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E148" s="16"/>
+      <c r="L148" s="13"/>
+    </row>
+    <row r="149" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E149" s="16"/>
+      <c r="L149" s="13"/>
+    </row>
+    <row r="150" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E150" s="16"/>
+      <c r="L150" s="13"/>
+    </row>
+    <row r="151" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E151" s="16"/>
+      <c r="L151" s="13"/>
+    </row>
+    <row r="152" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E152" s="16"/>
+      <c r="L152" s="13"/>
+    </row>
+    <row r="153" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E153" s="16"/>
+      <c r="L153" s="13"/>
+    </row>
+    <row r="154" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E154" s="16"/>
+      <c r="L154" s="13"/>
+    </row>
+    <row r="155" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E155" s="16"/>
+      <c r="L155" s="13"/>
+    </row>
+    <row r="156" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E156" s="16"/>
+      <c r="L156" s="13"/>
+    </row>
+    <row r="157" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E157" s="16"/>
+      <c r="L157" s="13"/>
+    </row>
+    <row r="158" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E158" s="16"/>
+      <c r="L158" s="13"/>
+    </row>
+    <row r="159" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E159" s="16"/>
+      <c r="L159" s="13"/>
+    </row>
+    <row r="160" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E160" s="16"/>
+      <c r="L160" s="13"/>
+    </row>
+    <row r="161" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E161" s="16"/>
+      <c r="L161" s="13"/>
+    </row>
+    <row r="162" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E162" s="16"/>
+      <c r="L162" s="13"/>
+    </row>
+    <row r="163" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E163" s="16"/>
+      <c r="L163" s="13"/>
+    </row>
+    <row r="164" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E164" s="16"/>
+      <c r="L164" s="13"/>
+    </row>
+    <row r="165" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E165" s="16"/>
+      <c r="L165" s="13"/>
+    </row>
+    <row r="166" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E166" s="16"/>
+      <c r="L166" s="13"/>
+    </row>
+    <row r="167" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E167" s="16"/>
+      <c r="L167" s="13"/>
+    </row>
+    <row r="168" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E168" s="16"/>
+      <c r="L168" s="13"/>
+    </row>
+    <row r="169" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E169" s="16"/>
+      <c r="L169" s="13"/>
+    </row>
+    <row r="170" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E170" s="16"/>
+      <c r="L170" s="13"/>
+    </row>
+    <row r="171" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E171" s="16"/>
+      <c r="L171" s="13"/>
+    </row>
+    <row r="172" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E172" s="16"/>
+      <c r="L172" s="13"/>
+    </row>
+    <row r="173" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E173" s="16"/>
+      <c r="L173" s="13"/>
+    </row>
+    <row r="174" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E174" s="16"/>
+      <c r="L174" s="13"/>
+    </row>
+    <row r="175" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E175" s="16"/>
+      <c r="L175" s="13"/>
+    </row>
+    <row r="176" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E176" s="16"/>
+      <c r="L176" s="13"/>
+    </row>
+    <row r="177" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E177" s="16"/>
+      <c r="L177" s="13"/>
+    </row>
+    <row r="178" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E178" s="16"/>
+      <c r="L178" s="13"/>
+    </row>
+    <row r="179" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E179" s="16"/>
+      <c r="L179" s="13"/>
+    </row>
+    <row r="180" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E180" s="16"/>
+      <c r="L180" s="13"/>
+    </row>
+    <row r="181" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E181" s="16"/>
+      <c r="L181" s="13"/>
+    </row>
+    <row r="182" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E182" s="16"/>
+      <c r="L182" s="13"/>
+    </row>
+    <row r="183" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E183" s="16"/>
+      <c r="L183" s="13"/>
+    </row>
+    <row r="184" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E184" s="16"/>
+      <c r="L184" s="13"/>
+    </row>
+    <row r="185" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E185" s="16"/>
+      <c r="L185" s="13"/>
+    </row>
+    <row r="186" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E186" s="16"/>
+      <c r="L186" s="13"/>
+    </row>
+    <row r="187" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E187" s="16"/>
+      <c r="L187" s="13"/>
+    </row>
+    <row r="188" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E188" s="16"/>
+      <c r="L188" s="13"/>
+    </row>
+    <row r="189" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E189" s="16"/>
+      <c r="L189" s="13"/>
+    </row>
+    <row r="190" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E190" s="16"/>
+      <c r="L190" s="13"/>
+    </row>
+    <row r="191" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E191" s="16"/>
+      <c r="L191" s="13"/>
+    </row>
+    <row r="192" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E192" s="16"/>
+      <c r="L192" s="13"/>
+    </row>
+    <row r="193" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E193" s="16"/>
+      <c r="L193" s="13"/>
+    </row>
+    <row r="194" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E194" s="16"/>
+      <c r="L194" s="13"/>
+    </row>
+    <row r="195" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E195" s="16"/>
+      <c r="L195" s="13"/>
+    </row>
+    <row r="196" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E196" s="16"/>
+      <c r="L196" s="13"/>
+    </row>
+    <row r="197" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E197" s="16"/>
+      <c r="L197" s="13"/>
+    </row>
+    <row r="198" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E198" s="16"/>
+      <c r="L198" s="13"/>
+    </row>
+    <row r="199" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E199" s="16"/>
+      <c r="L199" s="13"/>
+    </row>
+    <row r="200" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E200" s="16"/>
+      <c r="L200" s="13"/>
+    </row>
+    <row r="201" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E201" s="16"/>
+      <c r="L201" s="13"/>
+    </row>
+    <row r="202" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E202" s="16"/>
+      <c r="L202" s="13"/>
+    </row>
+    <row r="203" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E203" s="16"/>
+      <c r="L203" s="13"/>
+    </row>
+    <row r="204" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E204" s="16"/>
+      <c r="L204" s="13"/>
+    </row>
+    <row r="205" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E205" s="16"/>
+      <c r="L205" s="13"/>
+    </row>
+    <row r="206" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E206" s="16"/>
+      <c r="L206" s="13"/>
+    </row>
+    <row r="207" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E207" s="16"/>
+      <c r="L207" s="13"/>
+    </row>
+    <row r="208" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E208" s="16"/>
+      <c r="L208" s="13"/>
+    </row>
+    <row r="209" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E209" s="16"/>
+      <c r="L209" s="13"/>
+    </row>
+    <row r="210" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E210" s="16"/>
+      <c r="L210" s="13"/>
+    </row>
+    <row r="211" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E211" s="16"/>
+      <c r="L211" s="13"/>
+    </row>
+    <row r="212" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E212" s="16"/>
+      <c r="L212" s="13"/>
+    </row>
+    <row r="213" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E213" s="16"/>
+      <c r="L213" s="13"/>
+    </row>
+    <row r="214" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E214" s="16"/>
+      <c r="L214" s="13"/>
+    </row>
+    <row r="215" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E215" s="16"/>
+      <c r="L215" s="13"/>
+    </row>
+    <row r="216" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E216" s="16"/>
+      <c r="L216" s="13"/>
+    </row>
+    <row r="217" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E217" s="16"/>
+      <c r="L217" s="13"/>
+    </row>
+    <row r="218" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E218" s="16"/>
+      <c r="L218" s="13"/>
+    </row>
+    <row r="219" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E219" s="16"/>
+      <c r="L219" s="13"/>
+    </row>
+    <row r="220" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E220" s="16"/>
+      <c r="L220" s="13"/>
+    </row>
+    <row r="221" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E221" s="16"/>
+      <c r="L221" s="13"/>
+    </row>
+    <row r="222" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E222" s="16"/>
+      <c r="L222" s="13"/>
+    </row>
+    <row r="223" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E223" s="16"/>
+      <c r="L223" s="13"/>
+    </row>
+    <row r="224" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E224" s="16"/>
+      <c r="L224" s="13"/>
+    </row>
+    <row r="225" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E225" s="16"/>
+      <c r="L225" s="13"/>
+    </row>
+    <row r="226" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E226" s="16"/>
+      <c r="L226" s="13"/>
+    </row>
+    <row r="227" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E227" s="16"/>
+      <c r="L227" s="13"/>
+    </row>
+    <row r="228" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E228" s="16"/>
+      <c r="L228" s="13"/>
+    </row>
+    <row r="229" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E229" s="16"/>
+      <c r="L229" s="13"/>
+    </row>
+    <row r="230" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E230" s="16"/>
+      <c r="L230" s="13"/>
+    </row>
+    <row r="231" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E231" s="16"/>
+      <c r="L231" s="13"/>
+    </row>
+    <row r="232" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E232" s="16"/>
+      <c r="L232" s="13"/>
+    </row>
+    <row r="233" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E233" s="16"/>
+      <c r="L233" s="13"/>
+    </row>
+    <row r="234" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E234" s="16"/>
+      <c r="L234" s="13"/>
+    </row>
+    <row r="235" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E235" s="16"/>
+      <c r="L235" s="13"/>
+    </row>
+    <row r="236" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E236" s="16"/>
+      <c r="L236" s="13"/>
+    </row>
+    <row r="237" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E237" s="16"/>
+      <c r="L237" s="13"/>
+    </row>
+    <row r="238" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E238" s="16"/>
+      <c r="L238" s="13"/>
+    </row>
+    <row r="239" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E239" s="16"/>
+      <c r="L239" s="13"/>
+    </row>
+    <row r="240" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E240" s="16"/>
+      <c r="L240" s="13"/>
+    </row>
+    <row r="241" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E241" s="16"/>
+      <c r="L241" s="13"/>
+    </row>
+    <row r="242" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E242" s="16"/>
+      <c r="L242" s="13"/>
+    </row>
+    <row r="243" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E243" s="16"/>
+      <c r="L243" s="13"/>
+    </row>
+    <row r="244" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E244" s="16"/>
+      <c r="L244" s="13"/>
+    </row>
+    <row r="245" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E245" s="16"/>
+      <c r="L245" s="13"/>
+    </row>
+    <row r="246" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E246" s="16"/>
+      <c r="L246" s="13"/>
+    </row>
+    <row r="247" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E247" s="16"/>
+      <c r="L247" s="13"/>
+    </row>
+    <row r="248" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E248" s="16"/>
+      <c r="L248" s="13"/>
+    </row>
+    <row r="249" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E249" s="16"/>
+      <c r="L249" s="13"/>
+    </row>
+    <row r="250" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E250" s="16"/>
+      <c r="L250" s="13"/>
+    </row>
+    <row r="251" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E251" s="16"/>
+      <c r="L251" s="13"/>
+    </row>
+    <row r="252" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E252" s="16"/>
+      <c r="L252" s="13"/>
+    </row>
+    <row r="253" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E253" s="16"/>
+      <c r="L253" s="13"/>
+    </row>
+    <row r="254" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E254" s="16"/>
+      <c r="L254" s="13"/>
+    </row>
+    <row r="255" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E255" s="16"/>
+      <c r="L255" s="13"/>
+    </row>
+    <row r="256" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E256" s="16"/>
+      <c r="L256" s="13"/>
+    </row>
+    <row r="257" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E257" s="16"/>
+      <c r="L257" s="13"/>
+    </row>
+    <row r="258" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E258" s="16"/>
+      <c r="L258" s="13"/>
+    </row>
+    <row r="259" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E259" s="16"/>
+      <c r="L259" s="13"/>
+    </row>
+    <row r="260" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E260" s="16"/>
+      <c r="L260" s="13"/>
+    </row>
+    <row r="261" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E261" s="16"/>
+      <c r="L261" s="13"/>
+    </row>
+    <row r="262" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E262" s="16"/>
+      <c r="L262" s="13"/>
+    </row>
+    <row r="263" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E263" s="16"/>
+      <c r="L263" s="13"/>
+    </row>
+    <row r="264" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E264" s="16"/>
+      <c r="L264" s="13"/>
+    </row>
+    <row r="265" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E265" s="16"/>
+      <c r="L265" s="13"/>
+    </row>
+    <row r="266" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E266" s="16"/>
+      <c r="L266" s="13"/>
+    </row>
+    <row r="267" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E267" s="16"/>
+      <c r="L267" s="13"/>
+    </row>
+    <row r="268" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E268" s="16"/>
+      <c r="L268" s="13"/>
+    </row>
+    <row r="269" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E269" s="16"/>
+      <c r="L269" s="13"/>
+    </row>
+    <row r="270" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E270" s="16"/>
+      <c r="L270" s="13"/>
+    </row>
+    <row r="271" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E271" s="16"/>
+      <c r="L271" s="13"/>
+    </row>
+    <row r="272" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E272" s="16"/>
+      <c r="L272" s="13"/>
+    </row>
+    <row r="273" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E273" s="16"/>
+      <c r="L273" s="13"/>
+    </row>
+    <row r="274" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E274" s="16"/>
+      <c r="L274" s="13"/>
+    </row>
+    <row r="275" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E275" s="16"/>
+      <c r="L275" s="13"/>
+    </row>
+    <row r="276" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E276" s="16"/>
+      <c r="L276" s="13"/>
+    </row>
+    <row r="277" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E277" s="16"/>
+      <c r="L277" s="13"/>
+    </row>
+    <row r="278" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E278" s="16"/>
+      <c r="L278" s="13"/>
+    </row>
+    <row r="279" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E279" s="16"/>
+      <c r="L279" s="13"/>
+    </row>
+    <row r="280" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E280" s="16"/>
+      <c r="L280" s="13"/>
+    </row>
+    <row r="281" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E281" s="16"/>
+      <c r="L281" s="13"/>
+    </row>
+    <row r="282" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E282" s="16"/>
+      <c r="L282" s="13"/>
+    </row>
+    <row r="283" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E283" s="16"/>
+      <c r="L283" s="13"/>
+    </row>
+    <row r="284" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E284" s="16"/>
+      <c r="L284" s="13"/>
+    </row>
+    <row r="285" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E285" s="16"/>
+      <c r="L285" s="13"/>
+    </row>
+    <row r="286" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E286" s="16"/>
+      <c r="L286" s="13"/>
+    </row>
+    <row r="287" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E287" s="16"/>
+      <c r="L287" s="13"/>
+    </row>
+    <row r="288" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E288" s="16"/>
+      <c r="L288" s="13"/>
+    </row>
+    <row r="289" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E289" s="16"/>
+      <c r="L289" s="13"/>
+    </row>
+    <row r="290" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E290" s="16"/>
+      <c r="L290" s="13"/>
+    </row>
+    <row r="291" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E291" s="16"/>
+      <c r="L291" s="13"/>
+    </row>
+    <row r="292" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E292" s="16"/>
+      <c r="L292" s="13"/>
+    </row>
+    <row r="293" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E293" s="16"/>
+      <c r="L293" s="13"/>
+    </row>
+    <row r="294" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E294" s="16"/>
+      <c r="L294" s="13"/>
+    </row>
+    <row r="295" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E295" s="16"/>
+      <c r="L295" s="13"/>
+    </row>
+    <row r="296" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E296" s="16"/>
+      <c r="L296" s="13"/>
+    </row>
+    <row r="297" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E297" s="16"/>
+      <c r="L297" s="13"/>
+    </row>
+    <row r="298" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E298" s="16"/>
+      <c r="L298" s="13"/>
+    </row>
+    <row r="299" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E299" s="16"/>
+      <c r="L299" s="13"/>
+    </row>
+    <row r="300" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E300" s="16"/>
+      <c r="L300" s="13"/>
+    </row>
+    <row r="301" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E301" s="16"/>
+      <c r="L301" s="13"/>
+    </row>
+    <row r="302" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E302" s="16"/>
+      <c r="L302" s="13"/>
+    </row>
+    <row r="303" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E303" s="16"/>
+      <c r="L303" s="13"/>
+    </row>
+    <row r="304" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E304" s="16"/>
+      <c r="L304" s="13"/>
+    </row>
+    <row r="305" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E305" s="16"/>
+      <c r="L305" s="13"/>
+    </row>
+    <row r="306" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E306" s="16"/>
+      <c r="L306" s="13"/>
+    </row>
+    <row r="307" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E307" s="16"/>
+      <c r="L307" s="13"/>
+    </row>
+    <row r="308" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E308" s="16"/>
+      <c r="L308" s="13"/>
+    </row>
+    <row r="309" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E309" s="16"/>
+      <c r="L309" s="13"/>
+    </row>
+    <row r="310" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E310" s="16"/>
+      <c r="L310" s="13"/>
+    </row>
+    <row r="311" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E311" s="16"/>
+      <c r="L311" s="13"/>
+    </row>
+    <row r="312" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E312" s="16"/>
+      <c r="L312" s="13"/>
+    </row>
+    <row r="313" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E313" s="16"/>
+      <c r="L313" s="13"/>
+    </row>
+    <row r="314" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E314" s="16"/>
+      <c r="L314" s="13"/>
+    </row>
+    <row r="315" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E315" s="16"/>
+      <c r="L315" s="13"/>
+    </row>
+    <row r="316" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E316" s="16"/>
+      <c r="L316" s="13"/>
+    </row>
+    <row r="317" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E317" s="16"/>
+      <c r="L317" s="13"/>
+    </row>
+    <row r="318" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E318" s="16"/>
+      <c r="L318" s="13"/>
+    </row>
+    <row r="319" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E319" s="16"/>
+      <c r="L319" s="13"/>
+    </row>
+    <row r="320" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E320" s="16"/>
+      <c r="L320" s="13"/>
+    </row>
+    <row r="321" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E321" s="16"/>
+      <c r="L321" s="13"/>
+    </row>
+    <row r="322" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E322" s="16"/>
+      <c r="L322" s="13"/>
+    </row>
+    <row r="323" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E323" s="16"/>
+      <c r="L323" s="13"/>
+    </row>
+    <row r="324" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E324" s="16"/>
+      <c r="L324" s="13"/>
+    </row>
+    <row r="325" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E325" s="16"/>
+      <c r="L325" s="13"/>
+    </row>
+    <row r="326" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E326" s="16"/>
+      <c r="L326" s="13"/>
+    </row>
+    <row r="327" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E327" s="16"/>
+      <c r="L327" s="13"/>
+    </row>
+    <row r="328" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E328" s="16"/>
+      <c r="L328" s="13"/>
+    </row>
+    <row r="329" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E329" s="16"/>
+      <c r="L329" s="13"/>
+    </row>
+    <row r="330" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E330" s="16"/>
+      <c r="L330" s="13"/>
+    </row>
+    <row r="331" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E331" s="16"/>
+      <c r="L331" s="13"/>
+    </row>
+    <row r="332" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E332" s="16"/>
+      <c r="L332" s="13"/>
+    </row>
+    <row r="333" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E333" s="16"/>
+      <c r="L333" s="13"/>
+    </row>
+    <row r="334" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E334" s="16"/>
+      <c r="L334" s="13"/>
+    </row>
+    <row r="335" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E335" s="16"/>
+      <c r="L335" s="13"/>
+    </row>
+    <row r="336" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E336" s="16"/>
+      <c r="L336" s="13"/>
+    </row>
+    <row r="337" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E337" s="16"/>
+      <c r="L337" s="13"/>
+    </row>
+    <row r="338" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E338" s="16"/>
+      <c r="L338" s="13"/>
+    </row>
+    <row r="339" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E339" s="16"/>
+      <c r="L339" s="13"/>
+    </row>
+    <row r="340" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E340" s="16"/>
+      <c r="L340" s="13"/>
+    </row>
+    <row r="341" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E341" s="16"/>
+      <c r="L341" s="13"/>
+    </row>
+    <row r="342" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E342" s="16"/>
+      <c r="L342" s="13"/>
+    </row>
+    <row r="343" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E343" s="16"/>
+      <c r="L343" s="13"/>
+    </row>
+    <row r="344" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E344" s="16"/>
+      <c r="L344" s="13"/>
+    </row>
+    <row r="345" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E345" s="16"/>
+      <c r="L345" s="13"/>
+    </row>
+    <row r="346" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E346" s="16"/>
+      <c r="L346" s="13"/>
+    </row>
+    <row r="347" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E347" s="16"/>
+      <c r="L347" s="13"/>
+    </row>
+    <row r="348" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E348" s="16"/>
+      <c r="L348" s="13"/>
+    </row>
+    <row r="349" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E349" s="16"/>
+      <c r="L349" s="13"/>
+    </row>
+    <row r="350" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E350" s="16"/>
+      <c r="L350" s="13"/>
+    </row>
+    <row r="351" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E351" s="16"/>
+      <c r="L351" s="13"/>
+    </row>
+    <row r="352" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E352" s="16"/>
+      <c r="L352" s="13"/>
+    </row>
+    <row r="353" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E353" s="16"/>
+      <c r="L353" s="13"/>
+    </row>
+    <row r="354" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E354" s="16"/>
+      <c r="L354" s="13"/>
+    </row>
+    <row r="355" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E355" s="16"/>
+      <c r="L355" s="13"/>
+    </row>
+    <row r="356" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E356" s="16"/>
+      <c r="L356" s="13"/>
+    </row>
+    <row r="357" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E357" s="16"/>
+      <c r="L357" s="13"/>
+    </row>
+    <row r="358" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E358" s="16"/>
+      <c r="L358" s="13"/>
+    </row>
+    <row r="359" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E359" s="16"/>
+      <c r="L359" s="13"/>
+    </row>
+    <row r="360" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E360" s="16"/>
+      <c r="L360" s="13"/>
+    </row>
+    <row r="361" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E361" s="16"/>
+      <c r="L361" s="13"/>
+    </row>
+    <row r="362" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E362" s="16"/>
+      <c r="L362" s="13"/>
+    </row>
+    <row r="363" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E363" s="16"/>
+      <c r="L363" s="13"/>
+    </row>
+    <row r="364" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E364" s="16"/>
+      <c r="L364" s="13"/>
+    </row>
+    <row r="365" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E365" s="16"/>
+      <c r="L365" s="13"/>
+    </row>
+    <row r="366" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E366" s="16"/>
+      <c r="L366" s="13"/>
+    </row>
+    <row r="367" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E367" s="16"/>
+      <c r="L367" s="13"/>
+    </row>
+    <row r="368" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E368" s="16"/>
+      <c r="L368" s="13"/>
+    </row>
+    <row r="369" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E369" s="16"/>
+      <c r="L369" s="13"/>
+    </row>
+    <row r="370" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E370" s="16"/>
+      <c r="L370" s="13"/>
+    </row>
+    <row r="371" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E371" s="16"/>
+      <c r="L371" s="13"/>
+    </row>
+    <row r="372" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E372" s="16"/>
+      <c r="L372" s="13"/>
+    </row>
+    <row r="373" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E373" s="16"/>
+      <c r="L373" s="13"/>
+    </row>
+    <row r="374" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E374" s="16"/>
+      <c r="L374" s="13"/>
+    </row>
+    <row r="375" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E375" s="16"/>
+      <c r="L375" s="13"/>
+    </row>
+    <row r="376" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E376" s="16"/>
+      <c r="L376" s="13"/>
+    </row>
+    <row r="377" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E377" s="16"/>
+      <c r="L377" s="13"/>
+    </row>
+    <row r="378" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E378" s="16"/>
+      <c r="L378" s="13"/>
+    </row>
+    <row r="379" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E379" s="16"/>
+      <c r="L379" s="13"/>
+    </row>
+    <row r="380" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E380" s="16"/>
+      <c r="L380" s="13"/>
+    </row>
+    <row r="381" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E381" s="16"/>
+      <c r="L381" s="13"/>
+    </row>
+    <row r="382" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E382" s="16"/>
+      <c r="L382" s="13"/>
+    </row>
+    <row r="383" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E383" s="16"/>
+      <c r="L383" s="13"/>
+    </row>
+    <row r="384" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E384" s="16"/>
+      <c r="L384" s="13"/>
+    </row>
+    <row r="385" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E385" s="16"/>
+      <c r="L385" s="13"/>
+    </row>
+    <row r="386" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E386" s="16"/>
+      <c r="L386" s="13"/>
+    </row>
+    <row r="387" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E387" s="16"/>
+      <c r="L387" s="13"/>
+    </row>
+    <row r="388" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E388" s="16"/>
+      <c r="L388" s="13"/>
+    </row>
+    <row r="389" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E389" s="16"/>
+      <c r="L389" s="13"/>
+    </row>
+    <row r="390" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E390" s="16"/>
+      <c r="L390" s="13"/>
+    </row>
+    <row r="391" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E391" s="16"/>
+      <c r="L391" s="13"/>
+    </row>
+    <row r="392" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E392" s="16"/>
+      <c r="L392" s="13"/>
+    </row>
+    <row r="393" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E393" s="16"/>
+      <c r="L393" s="13"/>
+    </row>
+    <row r="394" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E394" s="16"/>
+      <c r="L394" s="13"/>
+    </row>
+    <row r="395" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E395" s="16"/>
+      <c r="L395" s="13"/>
+    </row>
+    <row r="396" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E396" s="16"/>
+      <c r="L396" s="13"/>
+    </row>
+    <row r="397" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E397" s="16"/>
+      <c r="L397" s="13"/>
+    </row>
+    <row r="398" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E398" s="16"/>
+      <c r="L398" s="13"/>
+    </row>
+    <row r="399" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E399" s="16"/>
+      <c r="L399" s="13"/>
+    </row>
+    <row r="400" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E400" s="16"/>
+      <c r="L400" s="13"/>
+    </row>
+    <row r="401" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E401" s="16"/>
+      <c r="L401" s="13"/>
+    </row>
+    <row r="402" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E402" s="16"/>
+      <c r="L402" s="13"/>
+    </row>
+    <row r="403" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E403" s="16"/>
+      <c r="L403" s="13"/>
+    </row>
+    <row r="404" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E404" s="16"/>
+      <c r="L404" s="13"/>
+    </row>
+    <row r="405" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E405" s="16"/>
+      <c r="L405" s="13"/>
+    </row>
+    <row r="406" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E406" s="16"/>
+      <c r="L406" s="13"/>
+    </row>
+    <row r="407" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E407" s="16"/>
+      <c r="L407" s="13"/>
+    </row>
+    <row r="408" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E408" s="16"/>
+      <c r="L408" s="13"/>
+    </row>
+    <row r="409" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E409" s="16"/>
+      <c r="L409" s="13"/>
+    </row>
+    <row r="410" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E410" s="16"/>
+      <c r="L410" s="13"/>
+    </row>
+    <row r="411" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E411" s="16"/>
+      <c r="L411" s="13"/>
+    </row>
+    <row r="412" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E412" s="16"/>
+      <c r="L412" s="13"/>
+    </row>
+    <row r="413" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E413" s="16"/>
+      <c r="L413" s="13"/>
+    </row>
+    <row r="414" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E414" s="16"/>
+      <c r="L414" s="13"/>
+    </row>
+    <row r="415" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E415" s="16"/>
+      <c r="L415" s="13"/>
+    </row>
+    <row r="416" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E416" s="16"/>
+      <c r="L416" s="13"/>
+    </row>
+    <row r="417" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E417" s="16"/>
+      <c r="L417" s="13"/>
+    </row>
+    <row r="418" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E418" s="16"/>
+      <c r="L418" s="13"/>
+    </row>
+    <row r="419" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E419" s="16"/>
+      <c r="L419" s="13"/>
+    </row>
+    <row r="420" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E420" s="16"/>
+      <c r="L420" s="13"/>
+    </row>
+    <row r="421" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E421" s="16"/>
+      <c r="L421" s="13"/>
+    </row>
+    <row r="422" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E422" s="16"/>
+      <c r="L422" s="13"/>
+    </row>
+    <row r="423" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E423" s="16"/>
+      <c r="L423" s="13"/>
+    </row>
+    <row r="424" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E424" s="16"/>
+      <c r="L424" s="13"/>
+    </row>
+    <row r="425" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E425" s="16"/>
+      <c r="L425" s="13"/>
+    </row>
+    <row r="426" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E426" s="16"/>
+      <c r="L426" s="13"/>
+    </row>
+    <row r="427" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E427" s="16"/>
+      <c r="L427" s="13"/>
+    </row>
+    <row r="428" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E428" s="16"/>
+      <c r="L428" s="13"/>
+    </row>
+    <row r="429" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E429" s="16"/>
+      <c r="L429" s="13"/>
+    </row>
+    <row r="430" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E430" s="16"/>
+      <c r="L430" s="13"/>
+    </row>
+    <row r="431" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E431" s="16"/>
+      <c r="L431" s="13"/>
+    </row>
+    <row r="432" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E432" s="16"/>
+      <c r="L432" s="13"/>
+    </row>
+    <row r="433" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E433" s="16"/>
+      <c r="L433" s="13"/>
+    </row>
+    <row r="434" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E434" s="16"/>
+      <c r="L434" s="13"/>
+    </row>
+    <row r="435" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E435" s="16"/>
+      <c r="L435" s="13"/>
+    </row>
+    <row r="436" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E436" s="16"/>
+      <c r="L436" s="13"/>
+    </row>
+    <row r="437" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E437" s="16"/>
+      <c r="L437" s="13"/>
+    </row>
+    <row r="438" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E438" s="16"/>
+      <c r="L438" s="13"/>
+    </row>
+    <row r="439" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E439" s="16"/>
+      <c r="L439" s="13"/>
+    </row>
+    <row r="440" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E440" s="16"/>
+      <c r="L440" s="13"/>
+    </row>
+    <row r="441" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E441" s="16"/>
+      <c r="L441" s="13"/>
+    </row>
+    <row r="442" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E442" s="16"/>
+      <c r="L442" s="13"/>
+    </row>
+    <row r="443" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E443" s="16"/>
+      <c r="L443" s="13"/>
+    </row>
+    <row r="444" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E444" s="16"/>
+      <c r="L444" s="13"/>
+    </row>
+    <row r="445" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E445" s="16"/>
+      <c r="L445" s="13"/>
+    </row>
+    <row r="446" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E446" s="16"/>
+      <c r="L446" s="13"/>
+    </row>
+    <row r="447" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E447" s="16"/>
+      <c r="L447" s="13"/>
+    </row>
+    <row r="448" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E448" s="16"/>
+      <c r="L448" s="13"/>
+    </row>
+    <row r="449" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E449" s="16"/>
+      <c r="L449" s="13"/>
+    </row>
+    <row r="450" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E450" s="16"/>
+      <c r="L450" s="13"/>
+    </row>
+    <row r="451" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E451" s="16"/>
+      <c r="L451" s="13"/>
+    </row>
+    <row r="452" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E452" s="16"/>
+      <c r="L452" s="13"/>
+    </row>
+    <row r="453" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E453" s="16"/>
+      <c r="L453" s="13"/>
+    </row>
+    <row r="454" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E454" s="16"/>
+      <c r="L454" s="13"/>
+    </row>
+    <row r="455" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E455" s="16"/>
+      <c r="L455" s="13"/>
+    </row>
+    <row r="456" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E456" s="16"/>
+      <c r="L456" s="13"/>
+    </row>
+    <row r="457" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E457" s="16"/>
+      <c r="L457" s="13"/>
+    </row>
+    <row r="458" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E458" s="16"/>
+      <c r="L458" s="13"/>
+    </row>
+    <row r="459" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E459" s="16"/>
+      <c r="L459" s="13"/>
+    </row>
+    <row r="460" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E460" s="16"/>
+      <c r="L460" s="13"/>
+    </row>
+    <row r="461" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E461" s="16"/>
+      <c r="L461" s="13"/>
+    </row>
+    <row r="462" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E462" s="16"/>
+      <c r="L462" s="13"/>
+    </row>
+    <row r="463" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E463" s="16"/>
+      <c r="L463" s="13"/>
+    </row>
+    <row r="464" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E464" s="16"/>
+      <c r="L464" s="13"/>
+    </row>
+    <row r="465" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E465" s="16"/>
+      <c r="L465" s="13"/>
+    </row>
+    <row r="466" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E466" s="16"/>
+      <c r="L466" s="13"/>
+    </row>
+    <row r="467" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E467" s="16"/>
+      <c r="L467" s="13"/>
+    </row>
+    <row r="468" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E468" s="16"/>
+      <c r="L468" s="13"/>
+    </row>
+    <row r="469" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E469" s="16"/>
+      <c r="L469" s="13"/>
+    </row>
+    <row r="470" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E470" s="16"/>
+      <c r="L470" s="13"/>
+    </row>
+    <row r="471" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E471" s="16"/>
+      <c r="L471" s="13"/>
+    </row>
+    <row r="472" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E472" s="16"/>
+      <c r="L472" s="13"/>
+    </row>
+    <row r="473" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E473" s="16"/>
+      <c r="L473" s="13"/>
+    </row>
+    <row r="474" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E474" s="16"/>
+      <c r="L474" s="13"/>
+    </row>
+    <row r="475" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E475" s="16"/>
+      <c r="L475" s="13"/>
+    </row>
+    <row r="476" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E476" s="16"/>
+      <c r="L476" s="13"/>
+    </row>
+    <row r="477" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E477" s="16"/>
+      <c r="L477" s="13"/>
+    </row>
+    <row r="478" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E478" s="16"/>
+      <c r="L478" s="13"/>
+    </row>
+    <row r="479" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E479" s="16"/>
+      <c r="L479" s="13"/>
+    </row>
+    <row r="480" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E480" s="16"/>
+      <c r="L480" s="13"/>
+    </row>
+    <row r="481" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E481" s="16"/>
+      <c r="L481" s="13"/>
+    </row>
+    <row r="482" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E482" s="16"/>
+      <c r="L482" s="13"/>
+    </row>
+    <row r="483" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E483" s="16"/>
+      <c r="L483" s="13"/>
+    </row>
+    <row r="484" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E484" s="16"/>
+      <c r="L484" s="13"/>
+    </row>
+    <row r="485" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E485" s="16"/>
+      <c r="L485" s="13"/>
+    </row>
+    <row r="486" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E486" s="16"/>
+      <c r="L486" s="13"/>
+    </row>
+    <row r="487" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E487" s="16"/>
+      <c r="L487" s="13"/>
+    </row>
+    <row r="488" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E488" s="16"/>
+      <c r="L488" s="13"/>
+    </row>
+    <row r="489" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E489" s="16"/>
+      <c r="L489" s="13"/>
+    </row>
+    <row r="490" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E490" s="16"/>
+      <c r="L490" s="13"/>
+    </row>
+    <row r="491" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E491" s="16"/>
+      <c r="L491" s="13"/>
+    </row>
+    <row r="492" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E492" s="16"/>
+      <c r="L492" s="13"/>
+    </row>
+    <row r="493" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E493" s="16"/>
+      <c r="L493" s="13"/>
+    </row>
+    <row r="494" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E494" s="16"/>
+      <c r="L494" s="13"/>
+    </row>
+    <row r="495" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E495" s="16"/>
+      <c r="L495" s="13"/>
+    </row>
+    <row r="496" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E496" s="16"/>
+      <c r="L496" s="13"/>
+    </row>
+    <row r="497" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E497" s="16"/>
+      <c r="L497" s="13"/>
+    </row>
+    <row r="498" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E498" s="16"/>
+      <c r="L498" s="13"/>
+    </row>
+    <row r="499" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E499" s="16"/>
+      <c r="L499" s="13"/>
+    </row>
+    <row r="500" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E500" s="16"/>
+      <c r="L500" s="13"/>
+    </row>
+    <row r="501" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E501" s="16"/>
+      <c r="L501" s="13"/>
+    </row>
+    <row r="502" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E502" s="16"/>
+      <c r="L502" s="13"/>
+    </row>
+    <row r="503" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E503" s="16"/>
+      <c r="L503" s="13"/>
+    </row>
+    <row r="504" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E504" s="16"/>
+      <c r="L504" s="13"/>
+    </row>
+    <row r="505" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E505" s="16"/>
+      <c r="L505" s="13"/>
+    </row>
+    <row r="506" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E506" s="16"/>
+      <c r="L506" s="13"/>
+    </row>
+    <row r="507" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E507" s="16"/>
+      <c r="L507" s="13"/>
+    </row>
+    <row r="508" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E508" s="16"/>
+      <c r="L508" s="13"/>
+    </row>
+    <row r="509" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E509" s="16"/>
+      <c r="L509" s="13"/>
+    </row>
+    <row r="510" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E510" s="16"/>
+      <c r="L510" s="13"/>
+    </row>
+    <row r="511" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E511" s="16"/>
+      <c r="L511" s="13"/>
+    </row>
+    <row r="512" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E512" s="16"/>
+      <c r="L512" s="13"/>
+    </row>
+    <row r="513" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E513" s="16"/>
+      <c r="L513" s="13"/>
+    </row>
+    <row r="514" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E514" s="16"/>
+      <c r="L514" s="13"/>
+    </row>
+    <row r="515" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E515" s="16"/>
+      <c r="L515" s="13"/>
+    </row>
+    <row r="516" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E516" s="16"/>
+      <c r="L516" s="13"/>
+    </row>
+    <row r="517" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E517" s="16"/>
+      <c r="L517" s="13"/>
+    </row>
+    <row r="518" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E518" s="16"/>
+      <c r="L518" s="13"/>
+    </row>
+    <row r="519" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E519" s="16"/>
+      <c r="L519" s="13"/>
+    </row>
+    <row r="520" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E520" s="16"/>
+      <c r="L520" s="13"/>
+    </row>
+    <row r="521" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E521" s="16"/>
+      <c r="L521" s="13"/>
+    </row>
+    <row r="522" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E522" s="16"/>
+      <c r="L522" s="13"/>
+    </row>
+    <row r="523" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E523" s="16"/>
+      <c r="L523" s="13"/>
+    </row>
+    <row r="524" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E524" s="16"/>
+      <c r="L524" s="13"/>
+    </row>
+    <row r="525" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E525" s="16"/>
+      <c r="L525" s="13"/>
+    </row>
+    <row r="526" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E526" s="16"/>
+      <c r="L526" s="13"/>
+    </row>
+    <row r="527" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E527" s="16"/>
+      <c r="L527" s="13"/>
+    </row>
+    <row r="528" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E528" s="16"/>
+      <c r="L528" s="13"/>
+    </row>
+    <row r="529" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E529" s="16"/>
+      <c r="L529" s="13"/>
+    </row>
+    <row r="530" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E530" s="16"/>
+      <c r="L530" s="13"/>
+    </row>
+    <row r="531" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E531" s="16"/>
+      <c r="L531" s="13"/>
+    </row>
+    <row r="532" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E532" s="16"/>
+      <c r="L532" s="13"/>
+    </row>
+    <row r="533" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E533" s="16"/>
+      <c r="L533" s="13"/>
+    </row>
+    <row r="534" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E534" s="16"/>
+      <c r="L534" s="13"/>
+    </row>
+    <row r="535" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E535" s="16"/>
+      <c r="L535" s="13"/>
+    </row>
+    <row r="536" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E536" s="16"/>
+      <c r="L536" s="13"/>
+    </row>
+    <row r="537" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E537" s="16"/>
+      <c r="L537" s="13"/>
+    </row>
+    <row r="538" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E538" s="16"/>
+      <c r="L538" s="13"/>
+    </row>
+    <row r="539" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E539" s="16"/>
+      <c r="L539" s="13"/>
+    </row>
+    <row r="540" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E540" s="16"/>
+      <c r="L540" s="13"/>
+    </row>
+    <row r="541" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E541" s="16"/>
+      <c r="L541" s="13"/>
+    </row>
+    <row r="542" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E542" s="16"/>
+      <c r="L542" s="13"/>
+    </row>
+    <row r="543" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E543" s="16"/>
+      <c r="L543" s="13"/>
+    </row>
+    <row r="544" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E544" s="16"/>
+      <c r="L544" s="13"/>
+    </row>
+    <row r="545" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E545" s="16"/>
+      <c r="L545" s="13"/>
+    </row>
+    <row r="546" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E546" s="16"/>
+      <c r="L546" s="13"/>
+    </row>
+    <row r="547" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E547" s="16"/>
+      <c r="L547" s="13"/>
+    </row>
+    <row r="548" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E548" s="16"/>
+      <c r="L548" s="13"/>
+    </row>
+    <row r="549" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E549" s="16"/>
+      <c r="L549" s="13"/>
+    </row>
+    <row r="550" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E550" s="16"/>
+      <c r="L550" s="13"/>
+    </row>
+    <row r="551" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E551" s="16"/>
+      <c r="L551" s="13"/>
+    </row>
+    <row r="552" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E552" s="16"/>
+      <c r="L552" s="13"/>
+    </row>
+    <row r="553" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E553" s="16"/>
+      <c r="L553" s="13"/>
+    </row>
+    <row r="554" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E554" s="16"/>
+      <c r="L554" s="13"/>
+    </row>
+    <row r="555" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E555" s="16"/>
+      <c r="L555" s="13"/>
+    </row>
+    <row r="556" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E556" s="16"/>
+      <c r="L556" s="13"/>
+    </row>
+    <row r="557" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E557" s="16"/>
+      <c r="L557" s="13"/>
+    </row>
+    <row r="558" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E558" s="16"/>
+      <c r="L558" s="13"/>
+    </row>
+    <row r="559" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E559" s="16"/>
+      <c r="L559" s="13"/>
+    </row>
+    <row r="560" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E560" s="16"/>
+      <c r="L560" s="13"/>
+    </row>
+    <row r="561" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E561" s="16"/>
+      <c r="L561" s="13"/>
+    </row>
+    <row r="562" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E562" s="16"/>
+      <c r="L562" s="13"/>
+    </row>
+    <row r="563" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E563" s="16"/>
+      <c r="L563" s="13"/>
+    </row>
+    <row r="564" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E564" s="16"/>
+      <c r="L564" s="13"/>
+    </row>
+    <row r="565" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E565" s="16"/>
+      <c r="L565" s="13"/>
+    </row>
+    <row r="566" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E566" s="16"/>
+      <c r="L566" s="13"/>
+    </row>
+    <row r="567" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E567" s="16"/>
+      <c r="L567" s="13"/>
+    </row>
+    <row r="568" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E568" s="16"/>
+      <c r="L568" s="13"/>
+    </row>
+    <row r="569" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E569" s="16"/>
+      <c r="L569" s="13"/>
+    </row>
+    <row r="570" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E570" s="16"/>
+      <c r="L570" s="13"/>
+    </row>
+    <row r="571" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E571" s="16"/>
+      <c r="L571" s="13"/>
+    </row>
+    <row r="572" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E572" s="16"/>
+      <c r="L572" s="13"/>
+    </row>
+    <row r="573" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E573" s="16"/>
+      <c r="L573" s="13"/>
+    </row>
+    <row r="574" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E574" s="16"/>
+      <c r="L574" s="13"/>
+    </row>
+    <row r="575" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E575" s="16"/>
+      <c r="L575" s="13"/>
+    </row>
+    <row r="576" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E576" s="16"/>
+      <c r="L576" s="13"/>
+    </row>
+    <row r="577" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E577" s="16"/>
+      <c r="L577" s="13"/>
+    </row>
+    <row r="578" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E578" s="16"/>
+      <c r="L578" s="13"/>
+    </row>
+    <row r="579" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E579" s="16"/>
+      <c r="L579" s="13"/>
+    </row>
+    <row r="580" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E580" s="16"/>
+      <c r="L580" s="13"/>
+    </row>
+    <row r="581" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E581" s="16"/>
+      <c r="L581" s="13"/>
+    </row>
+    <row r="582" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E582" s="16"/>
+      <c r="L582" s="13"/>
+    </row>
+    <row r="583" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E583" s="16"/>
+      <c r="L583" s="13"/>
+    </row>
+    <row r="584" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E584" s="16"/>
+      <c r="L584" s="13"/>
+    </row>
+    <row r="585" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E585" s="16"/>
+      <c r="L585" s="13"/>
+    </row>
+    <row r="586" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E586" s="16"/>
+      <c r="L586" s="13"/>
+    </row>
+    <row r="587" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E587" s="16"/>
+      <c r="L587" s="13"/>
+    </row>
+    <row r="588" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E588" s="16"/>
+      <c r="L588" s="13"/>
+    </row>
+    <row r="589" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E589" s="16"/>
+      <c r="L589" s="13"/>
+    </row>
+    <row r="590" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E590" s="16"/>
+      <c r="L590" s="13"/>
+    </row>
+    <row r="591" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E591" s="16"/>
+      <c r="L591" s="13"/>
+    </row>
+    <row r="592" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E592" s="16"/>
+      <c r="L592" s="13"/>
+    </row>
+    <row r="593" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E593" s="16"/>
+      <c r="L593" s="13"/>
+    </row>
+    <row r="594" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E594" s="16"/>
+      <c r="L594" s="13"/>
+    </row>
+    <row r="595" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E595" s="16"/>
+      <c r="L595" s="13"/>
+    </row>
+    <row r="596" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E596" s="16"/>
+      <c r="L596" s="13"/>
+    </row>
+    <row r="597" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E597" s="16"/>
+      <c r="L597" s="13"/>
+    </row>
+    <row r="598" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E598" s="16"/>
+      <c r="L598" s="13"/>
+    </row>
+    <row r="599" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E599" s="16"/>
+      <c r="L599" s="13"/>
+    </row>
+    <row r="600" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E600" s="16"/>
+      <c r="L600" s="13"/>
+    </row>
+    <row r="601" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E601" s="16"/>
+      <c r="L601" s="13"/>
+    </row>
+    <row r="602" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E602" s="16"/>
+      <c r="L602" s="13"/>
+    </row>
+    <row r="603" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E603" s="16"/>
+      <c r="L603" s="13"/>
+    </row>
+    <row r="604" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E604" s="16"/>
+      <c r="L604" s="13"/>
+    </row>
+    <row r="605" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E605" s="16"/>
+      <c r="L605" s="13"/>
+    </row>
+    <row r="606" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E606" s="16"/>
+      <c r="L606" s="13"/>
+    </row>
+    <row r="607" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E607" s="16"/>
+      <c r="L607" s="13"/>
+    </row>
+    <row r="608" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E608" s="16"/>
+      <c r="L608" s="13"/>
+    </row>
+    <row r="609" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E609" s="16"/>
+      <c r="L609" s="13"/>
+    </row>
+    <row r="610" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E610" s="16"/>
+      <c r="L610" s="13"/>
+    </row>
+    <row r="611" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E611" s="16"/>
+      <c r="L611" s="13"/>
+    </row>
+    <row r="612" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E612" s="16"/>
+      <c r="L612" s="13"/>
+    </row>
+    <row r="613" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E613" s="16"/>
+      <c r="L613" s="13"/>
+    </row>
+    <row r="614" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E614" s="16"/>
+      <c r="L614" s="13"/>
+    </row>
+    <row r="615" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E615" s="16"/>
+      <c r="L615" s="13"/>
+    </row>
+    <row r="616" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E616" s="16"/>
+      <c r="L616" s="13"/>
+    </row>
+    <row r="617" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E617" s="16"/>
+      <c r="L617" s="13"/>
+    </row>
+    <row r="618" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E618" s="16"/>
+      <c r="L618" s="13"/>
+    </row>
+    <row r="619" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E619" s="16"/>
+      <c r="L619" s="13"/>
+    </row>
+    <row r="620" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E620" s="16"/>
+      <c r="L620" s="13"/>
+    </row>
+    <row r="621" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E621" s="16"/>
+      <c r="L621" s="13"/>
+    </row>
+    <row r="622" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E622" s="16"/>
+      <c r="L622" s="13"/>
+    </row>
+    <row r="623" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E623" s="16"/>
+      <c r="L623" s="13"/>
+    </row>
+    <row r="624" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E624" s="16"/>
+      <c r="L624" s="13"/>
+    </row>
+    <row r="625" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E625" s="16"/>
+      <c r="L625" s="13"/>
+    </row>
+    <row r="626" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E626" s="16"/>
+      <c r="L626" s="13"/>
+    </row>
+    <row r="627" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E627" s="16"/>
+      <c r="L627" s="13"/>
+    </row>
+    <row r="628" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E628" s="16"/>
+      <c r="L628" s="13"/>
+    </row>
+    <row r="629" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E629" s="16"/>
+      <c r="L629" s="13"/>
+    </row>
+    <row r="630" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E630" s="16"/>
+      <c r="L630" s="13"/>
+    </row>
+    <row r="631" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E631" s="16"/>
+      <c r="L631" s="13"/>
+    </row>
+    <row r="632" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E632" s="16"/>
+      <c r="L632" s="13"/>
+    </row>
+    <row r="633" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E633" s="16"/>
+      <c r="L633" s="13"/>
+    </row>
+    <row r="634" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E634" s="16"/>
+      <c r="L634" s="13"/>
+    </row>
+    <row r="635" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E635" s="16"/>
+      <c r="L635" s="13"/>
+    </row>
+    <row r="636" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E636" s="16"/>
+      <c r="L636" s="13"/>
+    </row>
+    <row r="637" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E637" s="16"/>
+      <c r="L637" s="13"/>
+    </row>
+    <row r="638" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E638" s="16"/>
+      <c r="L638" s="13"/>
+    </row>
+    <row r="639" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E639" s="16"/>
+      <c r="L639" s="13"/>
+    </row>
+    <row r="640" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E640" s="16"/>
+      <c r="L640" s="13"/>
+    </row>
+    <row r="641" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E641" s="16"/>
+      <c r="L641" s="13"/>
+    </row>
+    <row r="642" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E642" s="16"/>
+      <c r="L642" s="13"/>
+    </row>
+    <row r="643" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E643" s="16"/>
+      <c r="L643" s="13"/>
+    </row>
+    <row r="644" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E644" s="16"/>
+      <c r="L644" s="13"/>
+    </row>
+    <row r="645" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E645" s="16"/>
+      <c r="L645" s="13"/>
+    </row>
+    <row r="646" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E646" s="16"/>
+      <c r="L646" s="13"/>
+    </row>
+    <row r="647" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E647" s="16"/>
+      <c r="L647" s="13"/>
+    </row>
+    <row r="648" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E648" s="16"/>
+      <c r="L648" s="13"/>
+    </row>
+    <row r="649" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E649" s="16"/>
+      <c r="L649" s="13"/>
+    </row>
+    <row r="650" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E650" s="16"/>
+      <c r="L650" s="13"/>
+    </row>
+    <row r="651" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E651" s="16"/>
+      <c r="L651" s="13"/>
+    </row>
+    <row r="652" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E652" s="16"/>
+      <c r="L652" s="13"/>
+    </row>
+    <row r="653" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E653" s="16"/>
+      <c r="L653" s="13"/>
+    </row>
+    <row r="654" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E654" s="16"/>
+      <c r="L654" s="13"/>
+    </row>
+    <row r="655" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E655" s="16"/>
+      <c r="L655" s="13"/>
+    </row>
+    <row r="656" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E656" s="16"/>
+      <c r="L656" s="13"/>
+    </row>
+    <row r="657" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E657" s="16"/>
+      <c r="L657" s="13"/>
+    </row>
+    <row r="658" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E658" s="16"/>
+      <c r="L658" s="13"/>
+    </row>
+    <row r="659" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E659" s="16"/>
+      <c r="L659" s="13"/>
+    </row>
+    <row r="660" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E660" s="16"/>
+      <c r="L660" s="13"/>
+    </row>
+    <row r="661" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E661" s="16"/>
+      <c r="L661" s="13"/>
+    </row>
+    <row r="662" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E662" s="16"/>
+      <c r="L662" s="13"/>
+    </row>
+    <row r="663" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E663" s="16"/>
+      <c r="L663" s="13"/>
+    </row>
+    <row r="664" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E664" s="16"/>
+      <c r="L664" s="13"/>
+    </row>
+    <row r="665" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E665" s="16"/>
+      <c r="L665" s="13"/>
+    </row>
+    <row r="666" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E666" s="16"/>
+      <c r="L666" s="13"/>
+    </row>
+    <row r="667" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E667" s="16"/>
+      <c r="L667" s="13"/>
+    </row>
+    <row r="668" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E668" s="16"/>
+      <c r="L668" s="13"/>
+    </row>
+    <row r="669" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E669" s="16"/>
+      <c r="L669" s="13"/>
+    </row>
+    <row r="670" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E670" s="16"/>
+      <c r="L670" s="13"/>
+    </row>
+    <row r="671" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E671" s="16"/>
+      <c r="L671" s="13"/>
+    </row>
+    <row r="672" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E672" s="16"/>
+      <c r="L672" s="13"/>
+    </row>
+    <row r="673" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E673" s="16"/>
+      <c r="L673" s="13"/>
+    </row>
+    <row r="674" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E674" s="16"/>
+      <c r="L674" s="13"/>
+    </row>
+    <row r="675" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E675" s="16"/>
+      <c r="L675" s="13"/>
+    </row>
+    <row r="676" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E676" s="16"/>
+      <c r="L676" s="13"/>
+    </row>
+    <row r="677" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E677" s="16"/>
+      <c r="L677" s="13"/>
+    </row>
+    <row r="678" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E678" s="16"/>
+      <c r="L678" s="13"/>
+    </row>
+    <row r="679" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E679" s="16"/>
+      <c r="L679" s="13"/>
+    </row>
+    <row r="680" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E680" s="16"/>
+      <c r="L680" s="13"/>
+    </row>
+    <row r="681" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E681" s="16"/>
+      <c r="L681" s="13"/>
+    </row>
+    <row r="682" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E682" s="16"/>
+      <c r="L682" s="13"/>
+    </row>
+    <row r="683" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E683" s="16"/>
+      <c r="L683" s="13"/>
+    </row>
+    <row r="684" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E684" s="16"/>
+      <c r="L684" s="13"/>
+    </row>
+    <row r="685" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E685" s="16"/>
+      <c r="L685" s="13"/>
+    </row>
+    <row r="686" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E686" s="16"/>
+      <c r="L686" s="13"/>
+    </row>
+    <row r="687" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E687" s="16"/>
+      <c r="L687" s="13"/>
+    </row>
+    <row r="688" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E688" s="16"/>
+      <c r="L688" s="13"/>
+    </row>
+    <row r="689" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E689" s="16"/>
+      <c r="L689" s="13"/>
+    </row>
+    <row r="690" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E690" s="16"/>
+      <c r="L690" s="13"/>
+    </row>
+    <row r="691" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E691" s="16"/>
+      <c r="L691" s="13"/>
+    </row>
+    <row r="692" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E692" s="16"/>
+      <c r="L692" s="13"/>
+    </row>
+    <row r="693" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E693" s="16"/>
+      <c r="L693" s="13"/>
+    </row>
+    <row r="694" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E694" s="16"/>
+      <c r="L694" s="13"/>
+    </row>
+    <row r="695" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E695" s="16"/>
+      <c r="L695" s="13"/>
+    </row>
+    <row r="696" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E696" s="16"/>
+      <c r="L696" s="13"/>
+    </row>
+    <row r="697" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E697" s="16"/>
+      <c r="L697" s="13"/>
+    </row>
+    <row r="698" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E698" s="16"/>
+      <c r="L698" s="13"/>
+    </row>
+    <row r="699" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E699" s="16"/>
+      <c r="L699" s="13"/>
+    </row>
+    <row r="700" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E700" s="16"/>
+      <c r="L700" s="13"/>
+    </row>
+    <row r="701" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E701" s="16"/>
+      <c r="L701" s="13"/>
+    </row>
+    <row r="702" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E702" s="16"/>
+      <c r="L702" s="13"/>
+    </row>
+    <row r="703" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E703" s="16"/>
+      <c r="L703" s="13"/>
+    </row>
+    <row r="704" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E704" s="16"/>
+      <c r="L704" s="13"/>
+    </row>
+    <row r="705" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E705" s="16"/>
+      <c r="L705" s="13"/>
+    </row>
+    <row r="706" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E706" s="16"/>
+      <c r="L706" s="13"/>
+    </row>
+    <row r="707" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E707" s="16"/>
+      <c r="L707" s="13"/>
+    </row>
+    <row r="708" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E708" s="16"/>
+      <c r="L708" s="13"/>
+    </row>
+    <row r="709" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E709" s="16"/>
+      <c r="L709" s="13"/>
+    </row>
+    <row r="710" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E710" s="16"/>
+      <c r="L710" s="13"/>
+    </row>
+    <row r="711" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E711" s="16"/>
+      <c r="L711" s="13"/>
+    </row>
+    <row r="712" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E712" s="16"/>
+      <c r="L712" s="13"/>
+    </row>
+    <row r="713" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E713" s="16"/>
+      <c r="L713" s="13"/>
+    </row>
+    <row r="714" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E714" s="16"/>
+      <c r="L714" s="13"/>
+    </row>
+    <row r="715" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E715" s="16"/>
+      <c r="L715" s="13"/>
+    </row>
+    <row r="716" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E716" s="16"/>
+      <c r="L716" s="13"/>
+    </row>
+    <row r="717" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E717" s="16"/>
+      <c r="L717" s="13"/>
+    </row>
+    <row r="718" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E718" s="16"/>
+      <c r="L718" s="13"/>
+    </row>
+    <row r="719" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E719" s="16"/>
+      <c r="L719" s="13"/>
+    </row>
+    <row r="720" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E720" s="16"/>
+      <c r="L720" s="13"/>
+    </row>
+    <row r="721" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E721" s="16"/>
+      <c r="L721" s="13"/>
+    </row>
+    <row r="722" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E722" s="16"/>
+      <c r="L722" s="13"/>
+    </row>
+    <row r="723" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E723" s="16"/>
+      <c r="L723" s="13"/>
+    </row>
+    <row r="724" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E724" s="16"/>
+      <c r="L724" s="13"/>
+    </row>
+    <row r="725" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E725" s="16"/>
+      <c r="L725" s="13"/>
+    </row>
+    <row r="726" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E726" s="16"/>
+      <c r="L726" s="13"/>
+    </row>
+    <row r="727" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E727" s="16"/>
+      <c r="L727" s="13"/>
+    </row>
+    <row r="728" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E728" s="16"/>
+      <c r="L728" s="13"/>
+    </row>
+    <row r="729" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E729" s="16"/>
+      <c r="L729" s="13"/>
+    </row>
+    <row r="730" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E730" s="16"/>
+      <c r="L730" s="13"/>
+    </row>
+    <row r="731" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E731" s="16"/>
+      <c r="L731" s="13"/>
+    </row>
+    <row r="732" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E732" s="16"/>
+      <c r="L732" s="13"/>
+    </row>
+    <row r="733" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E733" s="16"/>
+      <c r="L733" s="13"/>
+    </row>
+    <row r="734" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E734" s="16"/>
+      <c r="L734" s="13"/>
+    </row>
+    <row r="735" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E735" s="16"/>
+      <c r="L735" s="13"/>
+    </row>
+    <row r="736" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E736" s="16"/>
+      <c r="L736" s="13"/>
+    </row>
+    <row r="737" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E737" s="16"/>
+      <c r="L737" s="13"/>
+    </row>
+    <row r="738" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E738" s="16"/>
+      <c r="L738" s="13"/>
+    </row>
+    <row r="739" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E739" s="16"/>
+      <c r="L739" s="13"/>
+    </row>
+    <row r="740" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E740" s="16"/>
+      <c r="L740" s="13"/>
+    </row>
+    <row r="741" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E741" s="16"/>
+      <c r="L741" s="13"/>
+    </row>
+    <row r="742" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E742" s="16"/>
+      <c r="L742" s="13"/>
+    </row>
+    <row r="743" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E743" s="16"/>
+      <c r="L743" s="13"/>
+    </row>
+    <row r="744" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E744" s="16"/>
+      <c r="L744" s="13"/>
+    </row>
+    <row r="745" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E745" s="16"/>
+      <c r="L745" s="13"/>
+    </row>
+    <row r="746" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E746" s="16"/>
+      <c r="L746" s="13"/>
+    </row>
+    <row r="747" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E747" s="16"/>
+      <c r="L747" s="13"/>
+    </row>
+    <row r="748" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E748" s="16"/>
+      <c r="L748" s="13"/>
+    </row>
+    <row r="749" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E749" s="16"/>
+      <c r="L749" s="13"/>
+    </row>
+    <row r="750" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E750" s="16"/>
+      <c r="L750" s="13"/>
+    </row>
+    <row r="751" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E751" s="16"/>
+      <c r="L751" s="13"/>
+    </row>
+    <row r="752" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E752" s="16"/>
+      <c r="L752" s="13"/>
+    </row>
+    <row r="753" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E753" s="16"/>
+      <c r="L753" s="13"/>
+    </row>
+    <row r="754" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E754" s="16"/>
+      <c r="L754" s="13"/>
+    </row>
+    <row r="755" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E755" s="16"/>
+      <c r="L755" s="13"/>
+    </row>
+    <row r="756" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E756" s="16"/>
+      <c r="L756" s="13"/>
+    </row>
+    <row r="757" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E757" s="16"/>
+      <c r="L757" s="13"/>
+    </row>
+    <row r="758" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E758" s="16"/>
+      <c r="L758" s="13"/>
+    </row>
+    <row r="759" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E759" s="16"/>
+      <c r="L759" s="13"/>
+    </row>
+    <row r="760" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E760" s="16"/>
+      <c r="L760" s="13"/>
+    </row>
+    <row r="761" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E761" s="16"/>
+      <c r="L761" s="13"/>
+    </row>
+    <row r="762" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E762" s="16"/>
+      <c r="L762" s="13"/>
+    </row>
+    <row r="763" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E763" s="16"/>
+      <c r="L763" s="13"/>
+    </row>
+    <row r="764" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E764" s="16"/>
+      <c r="L764" s="13"/>
+    </row>
+    <row r="765" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E765" s="16"/>
+      <c r="L765" s="13"/>
+    </row>
+    <row r="766" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E766" s="16"/>
+      <c r="L766" s="13"/>
+    </row>
+    <row r="767" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E767" s="16"/>
+      <c r="L767" s="13"/>
+    </row>
+    <row r="768" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E768" s="16"/>
+      <c r="L768" s="13"/>
+    </row>
+    <row r="769" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E769" s="16"/>
+      <c r="L769" s="13"/>
+    </row>
+    <row r="770" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E770" s="16"/>
+      <c r="L770" s="13"/>
+    </row>
+    <row r="771" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E771" s="16"/>
+      <c r="L771" s="13"/>
+    </row>
+    <row r="772" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E772" s="16"/>
+      <c r="L772" s="13"/>
+    </row>
+    <row r="773" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E773" s="16"/>
+      <c r="L773" s="13"/>
+    </row>
+    <row r="774" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E774" s="16"/>
+      <c r="L774" s="13"/>
+    </row>
+    <row r="775" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E775" s="16"/>
+      <c r="L775" s="13"/>
+    </row>
+    <row r="776" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E776" s="16"/>
+      <c r="L776" s="13"/>
+    </row>
+    <row r="777" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E777" s="16"/>
+      <c r="L777" s="13"/>
+    </row>
+    <row r="778" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E778" s="16"/>
+      <c r="L778" s="13"/>
+    </row>
+    <row r="779" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E779" s="16"/>
+      <c r="L779" s="13"/>
+    </row>
+    <row r="780" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E780" s="16"/>
+      <c r="L780" s="13"/>
+    </row>
+    <row r="781" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E781" s="16"/>
+      <c r="L781" s="13"/>
+    </row>
+    <row r="782" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E782" s="16"/>
+      <c r="L782" s="13"/>
+    </row>
+    <row r="783" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E783" s="16"/>
+      <c r="L783" s="13"/>
+    </row>
+    <row r="784" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E784" s="16"/>
+      <c r="L784" s="13"/>
+    </row>
+    <row r="785" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E785" s="16"/>
+      <c r="L785" s="13"/>
+    </row>
+    <row r="786" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E786" s="16"/>
+      <c r="L786" s="13"/>
+    </row>
+    <row r="787" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E787" s="16"/>
+      <c r="L787" s="13"/>
+    </row>
+    <row r="788" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E788" s="16"/>
+      <c r="L788" s="13"/>
+    </row>
+    <row r="789" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E789" s="16"/>
+      <c r="L789" s="13"/>
+    </row>
+    <row r="790" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E790" s="16"/>
+      <c r="L790" s="13"/>
+    </row>
+    <row r="791" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E791" s="16"/>
+      <c r="L791" s="13"/>
+    </row>
+    <row r="792" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E792" s="16"/>
+      <c r="L792" s="13"/>
+    </row>
+    <row r="793" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E793" s="16"/>
+      <c r="L793" s="13"/>
+    </row>
+    <row r="794" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E794" s="16"/>
+      <c r="L794" s="13"/>
+    </row>
+    <row r="795" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E795" s="16"/>
+      <c r="L795" s="13"/>
+    </row>
+    <row r="796" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E796" s="16"/>
+      <c r="L796" s="13"/>
+    </row>
+    <row r="797" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E797" s="16"/>
+      <c r="L797" s="13"/>
+    </row>
+    <row r="798" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E798" s="16"/>
+      <c r="L798" s="13"/>
+    </row>
+    <row r="799" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E799" s="16"/>
+      <c r="L799" s="13"/>
+    </row>
+    <row r="800" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E800" s="16"/>
+      <c r="L800" s="13"/>
+    </row>
+    <row r="801" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E801" s="16"/>
+      <c r="L801" s="13"/>
+    </row>
+    <row r="802" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E802" s="16"/>
+      <c r="L802" s="13"/>
+    </row>
+    <row r="803" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E803" s="16"/>
+      <c r="L803" s="13"/>
+    </row>
+    <row r="804" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E804" s="16"/>
+      <c r="L804" s="13"/>
+    </row>
+    <row r="805" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E805" s="16"/>
+      <c r="L805" s="13"/>
+    </row>
+    <row r="806" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E806" s="16"/>
+      <c r="L806" s="13"/>
+    </row>
+    <row r="807" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E807" s="16"/>
+      <c r="L807" s="13"/>
+    </row>
+    <row r="808" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E808" s="16"/>
+      <c r="L808" s="13"/>
+    </row>
+    <row r="809" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E809" s="16"/>
+      <c r="L809" s="13"/>
+    </row>
+    <row r="810" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E810" s="16"/>
+      <c r="L810" s="13"/>
+    </row>
+    <row r="811" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E811" s="16"/>
+      <c r="L811" s="13"/>
+    </row>
+    <row r="812" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E812" s="16"/>
+      <c r="L812" s="13"/>
+    </row>
+    <row r="813" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E813" s="16"/>
+      <c r="L813" s="13"/>
+    </row>
+    <row r="814" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E814" s="16"/>
+      <c r="L814" s="13"/>
+    </row>
+    <row r="815" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E815" s="16"/>
+      <c r="L815" s="13"/>
+    </row>
+    <row r="816" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E816" s="16"/>
+      <c r="L816" s="13"/>
+    </row>
+    <row r="817" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E817" s="16"/>
+      <c r="L817" s="13"/>
+    </row>
+    <row r="818" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E818" s="16"/>
+      <c r="L818" s="13"/>
+    </row>
+    <row r="819" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E819" s="16"/>
+      <c r="L819" s="13"/>
+    </row>
+    <row r="820" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E820" s="16"/>
+      <c r="L820" s="13"/>
+    </row>
+    <row r="821" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E821" s="16"/>
+      <c r="L821" s="13"/>
+    </row>
+    <row r="822" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E822" s="16"/>
+      <c r="L822" s="13"/>
+    </row>
+    <row r="823" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E823" s="16"/>
+      <c r="L823" s="13"/>
+    </row>
+    <row r="824" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E824" s="16"/>
+      <c r="L824" s="13"/>
+    </row>
+    <row r="825" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E825" s="16"/>
+      <c r="L825" s="13"/>
+    </row>
+    <row r="826" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E826" s="16"/>
+      <c r="L826" s="13"/>
+    </row>
+    <row r="827" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E827" s="16"/>
+      <c r="L827" s="13"/>
+    </row>
+    <row r="828" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E828" s="16"/>
+      <c r="L828" s="13"/>
+    </row>
+    <row r="829" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E829" s="16"/>
+      <c r="L829" s="13"/>
+    </row>
+    <row r="830" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E830" s="16"/>
+      <c r="L830" s="13"/>
+    </row>
+    <row r="831" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E831" s="16"/>
+      <c r="L831" s="13"/>
+    </row>
+    <row r="832" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E832" s="16"/>
+      <c r="L832" s="13"/>
+    </row>
+    <row r="833" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E833" s="16"/>
+      <c r="L833" s="13"/>
+    </row>
+    <row r="834" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E834" s="16"/>
+      <c r="L834" s="13"/>
+    </row>
+    <row r="835" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E835" s="16"/>
+      <c r="L835" s="13"/>
+    </row>
+    <row r="836" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E836" s="16"/>
+      <c r="L836" s="13"/>
+    </row>
+    <row r="837" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E837" s="16"/>
+      <c r="L837" s="13"/>
+    </row>
+    <row r="838" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E838" s="16"/>
+      <c r="L838" s="13"/>
+    </row>
+    <row r="839" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E839" s="16"/>
+      <c r="L839" s="13"/>
+    </row>
+    <row r="840" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E840" s="16"/>
+      <c r="L840" s="13"/>
+    </row>
+    <row r="841" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E841" s="16"/>
+      <c r="L841" s="13"/>
+    </row>
+    <row r="842" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E842" s="16"/>
+      <c r="L842" s="13"/>
+    </row>
+    <row r="843" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E843" s="16"/>
+      <c r="L843" s="13"/>
+    </row>
+    <row r="844" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E844" s="16"/>
+      <c r="L844" s="13"/>
+    </row>
+    <row r="845" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E845" s="16"/>
+      <c r="L845" s="13"/>
+    </row>
+    <row r="846" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E846" s="16"/>
+      <c r="L846" s="13"/>
+    </row>
+    <row r="847" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E847" s="16"/>
+      <c r="L847" s="13"/>
+    </row>
+    <row r="848" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E848" s="16"/>
+      <c r="L848" s="13"/>
+    </row>
+    <row r="849" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E849" s="16"/>
+      <c r="L849" s="13"/>
+    </row>
+    <row r="850" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E850" s="16"/>
+      <c r="L850" s="13"/>
+    </row>
+    <row r="851" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E851" s="16"/>
+      <c r="L851" s="13"/>
+    </row>
+    <row r="852" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E852" s="16"/>
+      <c r="L852" s="13"/>
+    </row>
+    <row r="853" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E853" s="16"/>
+      <c r="L853" s="13"/>
+    </row>
+    <row r="854" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E854" s="16"/>
+      <c r="L854" s="13"/>
+    </row>
+    <row r="855" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E855" s="16"/>
+      <c r="L855" s="13"/>
+    </row>
+    <row r="856" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E856" s="16"/>
+      <c r="L856" s="13"/>
+    </row>
+    <row r="857" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E857" s="16"/>
+      <c r="L857" s="13"/>
+    </row>
+    <row r="858" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E858" s="16"/>
+      <c r="L858" s="13"/>
+    </row>
+    <row r="859" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E859" s="16"/>
+      <c r="L859" s="13"/>
+    </row>
+    <row r="860" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E860" s="16"/>
+      <c r="L860" s="13"/>
+    </row>
+    <row r="861" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E861" s="16"/>
+      <c r="L861" s="13"/>
+    </row>
+    <row r="862" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E862" s="16"/>
+      <c r="L862" s="13"/>
+    </row>
+    <row r="863" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E863" s="16"/>
+      <c r="L863" s="13"/>
+    </row>
+    <row r="864" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E864" s="16"/>
+      <c r="L864" s="13"/>
+    </row>
+    <row r="865" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E865" s="16"/>
+      <c r="L865" s="13"/>
+    </row>
+    <row r="866" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E866" s="16"/>
+      <c r="L866" s="13"/>
+    </row>
+    <row r="867" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E867" s="16"/>
+      <c r="L867" s="13"/>
+    </row>
+    <row r="868" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E868" s="16"/>
+      <c r="L868" s="13"/>
+    </row>
+    <row r="869" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E869" s="16"/>
+      <c r="L869" s="13"/>
+    </row>
+    <row r="870" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E870" s="16"/>
+      <c r="L870" s="13"/>
+    </row>
+    <row r="871" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E871" s="16"/>
+      <c r="L871" s="13"/>
+    </row>
+    <row r="872" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E872" s="16"/>
+      <c r="L872" s="13"/>
+    </row>
+    <row r="873" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E873" s="16"/>
+      <c r="L873" s="13"/>
+    </row>
+    <row r="874" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E874" s="16"/>
+      <c r="L874" s="13"/>
+    </row>
+    <row r="875" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E875" s="16"/>
+      <c r="L875" s="13"/>
+    </row>
+    <row r="876" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E876" s="16"/>
+      <c r="L876" s="13"/>
+    </row>
+    <row r="877" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E877" s="16"/>
+      <c r="L877" s="13"/>
+    </row>
+    <row r="878" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E878" s="16"/>
+      <c r="L878" s="13"/>
+    </row>
+    <row r="879" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E879" s="16"/>
+      <c r="L879" s="13"/>
+    </row>
+    <row r="880" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E880" s="16"/>
+      <c r="L880" s="13"/>
+    </row>
+    <row r="881" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E881" s="16"/>
+      <c r="L881" s="13"/>
+    </row>
+    <row r="882" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E882" s="16"/>
+      <c r="L882" s="13"/>
+    </row>
+    <row r="883" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E883" s="16"/>
+      <c r="L883" s="13"/>
+    </row>
+    <row r="884" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E884" s="16"/>
+      <c r="L884" s="13"/>
+    </row>
+    <row r="885" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E885" s="16"/>
+      <c r="L885" s="13"/>
+    </row>
+    <row r="886" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E886" s="16"/>
+      <c r="L886" s="13"/>
+    </row>
+    <row r="887" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E887" s="16"/>
+      <c r="L887" s="13"/>
+    </row>
+    <row r="888" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E888" s="16"/>
+      <c r="L888" s="13"/>
+    </row>
+    <row r="889" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E889" s="16"/>
+      <c r="L889" s="13"/>
+    </row>
+    <row r="890" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E890" s="16"/>
+      <c r="L890" s="13"/>
+    </row>
+    <row r="891" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E891" s="16"/>
+      <c r="L891" s="13"/>
+    </row>
+    <row r="892" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E892" s="16"/>
+      <c r="L892" s="13"/>
+    </row>
+    <row r="893" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E893" s="16"/>
+      <c r="L893" s="13"/>
+    </row>
+    <row r="894" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E894" s="16"/>
+      <c r="L894" s="13"/>
+    </row>
+    <row r="895" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E895" s="16"/>
+      <c r="L895" s="13"/>
+    </row>
+    <row r="896" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E896" s="16"/>
+      <c r="L896" s="13"/>
+    </row>
+    <row r="897" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E897" s="16"/>
+      <c r="L897" s="13"/>
+    </row>
+    <row r="898" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E898" s="16"/>
+      <c r="L898" s="13"/>
+    </row>
+    <row r="899" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E899" s="16"/>
+      <c r="L899" s="13"/>
+    </row>
+    <row r="900" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E900" s="16"/>
+      <c r="L900" s="13"/>
+    </row>
+    <row r="901" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E901" s="16"/>
+      <c r="L901" s="13"/>
+    </row>
+    <row r="902" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E902" s="16"/>
+      <c r="L902" s="13"/>
+    </row>
+    <row r="903" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E903" s="16"/>
+      <c r="L903" s="13"/>
+    </row>
+    <row r="904" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E904" s="16"/>
+      <c r="L904" s="13"/>
+    </row>
+    <row r="905" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E905" s="16"/>
+      <c r="L905" s="13"/>
+    </row>
+    <row r="906" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E906" s="16"/>
+      <c r="L906" s="13"/>
+    </row>
+    <row r="907" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E907" s="16"/>
+      <c r="L907" s="13"/>
+    </row>
+    <row r="908" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E908" s="16"/>
+      <c r="L908" s="13"/>
+    </row>
+    <row r="909" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E909" s="16"/>
+      <c r="L909" s="13"/>
+    </row>
+    <row r="910" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E910" s="16"/>
+      <c r="L910" s="13"/>
+    </row>
+    <row r="911" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E911" s="16"/>
+      <c r="L911" s="13"/>
+    </row>
+    <row r="912" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E912" s="16"/>
+      <c r="L912" s="13"/>
+    </row>
+    <row r="913" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E913" s="16"/>
+      <c r="L913" s="13"/>
+    </row>
+    <row r="914" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E914" s="16"/>
+      <c r="L914" s="13"/>
+    </row>
+    <row r="915" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E915" s="16"/>
+      <c r="L915" s="13"/>
+    </row>
+    <row r="916" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E916" s="16"/>
+      <c r="L916" s="13"/>
+    </row>
+    <row r="917" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E917" s="16"/>
+      <c r="L917" s="13"/>
+    </row>
+    <row r="918" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E918" s="16"/>
+      <c r="L918" s="13"/>
+    </row>
+    <row r="919" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E919" s="16"/>
+      <c r="L919" s="13"/>
+    </row>
+    <row r="920" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E920" s="16"/>
+      <c r="L920" s="13"/>
+    </row>
+    <row r="921" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E921" s="16"/>
+      <c r="L921" s="13"/>
+    </row>
+    <row r="922" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E922" s="16"/>
+      <c r="L922" s="13"/>
+    </row>
+    <row r="923" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E923" s="16"/>
+      <c r="L923" s="13"/>
+    </row>
+    <row r="924" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E924" s="16"/>
+      <c r="L924" s="13"/>
+    </row>
+    <row r="925" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E925" s="16"/>
+      <c r="L925" s="13"/>
+    </row>
+    <row r="926" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E926" s="16"/>
+      <c r="L926" s="13"/>
+    </row>
+    <row r="927" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E927" s="16"/>
+      <c r="L927" s="13"/>
+    </row>
+    <row r="928" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E928" s="16"/>
+      <c r="L928" s="13"/>
+    </row>
+    <row r="929" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E929" s="16"/>
+      <c r="L929" s="13"/>
+    </row>
+    <row r="930" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E930" s="16"/>
+      <c r="L930" s="13"/>
+    </row>
+    <row r="931" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E931" s="16"/>
+      <c r="L931" s="13"/>
+    </row>
+    <row r="932" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E932" s="16"/>
+      <c r="L932" s="13"/>
+    </row>
+    <row r="933" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E933" s="16"/>
+      <c r="L933" s="13"/>
+    </row>
+    <row r="934" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E934" s="16"/>
+      <c r="L934" s="13"/>
+    </row>
+    <row r="935" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E935" s="16"/>
+      <c r="L935" s="13"/>
+    </row>
+    <row r="936" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E936" s="16"/>
+      <c r="L936" s="13"/>
+    </row>
+    <row r="937" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E937" s="16"/>
+      <c r="L937" s="13"/>
+    </row>
+    <row r="938" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E938" s="16"/>
+      <c r="L938" s="13"/>
+    </row>
+    <row r="939" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E939" s="16"/>
+      <c r="L939" s="13"/>
+    </row>
+    <row r="940" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E940" s="16"/>
+      <c r="L940" s="13"/>
+    </row>
+    <row r="941" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E941" s="16"/>
+      <c r="L941" s="13"/>
+    </row>
+    <row r="942" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E942" s="16"/>
+      <c r="L942" s="13"/>
+    </row>
+    <row r="943" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E943" s="16"/>
+      <c r="L943" s="13"/>
+    </row>
+    <row r="944" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E944" s="16"/>
+      <c r="L944" s="13"/>
+    </row>
+    <row r="945" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E945" s="16"/>
+      <c r="L945" s="13"/>
+    </row>
+    <row r="946" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E946" s="16"/>
+      <c r="L946" s="13"/>
+    </row>
+    <row r="947" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E947" s="16"/>
+      <c r="L947" s="13"/>
+    </row>
+    <row r="948" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E948" s="16"/>
+      <c r="L948" s="13"/>
+    </row>
+    <row r="949" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E949" s="16"/>
+      <c r="L949" s="13"/>
+    </row>
+    <row r="950" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E950" s="16"/>
+      <c r="L950" s="13"/>
+    </row>
+    <row r="951" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E951" s="16"/>
+      <c r="L951" s="13"/>
+    </row>
+    <row r="952" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E952" s="16"/>
+      <c r="L952" s="13"/>
+    </row>
+    <row r="953" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E953" s="16"/>
+      <c r="L953" s="13"/>
+    </row>
+    <row r="954" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E954" s="16"/>
+      <c r="L954" s="13"/>
+    </row>
+    <row r="955" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E955" s="16"/>
+      <c r="L955" s="13"/>
+    </row>
+    <row r="956" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E956" s="16"/>
+      <c r="L956" s="13"/>
+    </row>
+    <row r="957" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E957" s="16"/>
+      <c r="L957" s="13"/>
+    </row>
+    <row r="958" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E958" s="16"/>
+      <c r="L958" s="13"/>
+    </row>
+    <row r="959" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E959" s="16"/>
+      <c r="L959" s="13"/>
+    </row>
+    <row r="960" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E960" s="16"/>
+      <c r="L960" s="13"/>
+    </row>
+    <row r="961" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E961" s="16"/>
+      <c r="L961" s="13"/>
+    </row>
+    <row r="962" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E962" s="16"/>
+      <c r="L962" s="13"/>
+    </row>
+    <row r="963" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E963" s="16"/>
+      <c r="L963" s="13"/>
+    </row>
+    <row r="964" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E964" s="16"/>
+      <c r="L964" s="13"/>
+    </row>
+    <row r="965" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E965" s="16"/>
+      <c r="L965" s="13"/>
+    </row>
+    <row r="966" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E966" s="16"/>
+      <c r="L966" s="13"/>
+    </row>
+    <row r="967" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E967" s="16"/>
+      <c r="L967" s="13"/>
+    </row>
+    <row r="968" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E968" s="16"/>
+      <c r="L968" s="13"/>
+    </row>
+    <row r="969" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E969" s="16"/>
+      <c r="L969" s="13"/>
+    </row>
+    <row r="970" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E970" s="16"/>
+      <c r="L970" s="13"/>
+    </row>
+    <row r="971" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E971" s="16"/>
+      <c r="L971" s="13"/>
+    </row>
+    <row r="972" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E972" s="16"/>
+      <c r="L972" s="13"/>
+    </row>
+    <row r="973" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E973" s="16"/>
+      <c r="L973" s="13"/>
+    </row>
+    <row r="974" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E974" s="16"/>
+      <c r="L974" s="13"/>
+    </row>
+    <row r="975" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E975" s="16"/>
+      <c r="L975" s="13"/>
+    </row>
+    <row r="976" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E976" s="16"/>
+      <c r="L976" s="13"/>
+    </row>
+    <row r="977" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E977" s="16"/>
+      <c r="L977" s="13"/>
+    </row>
+    <row r="978" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E978" s="16"/>
+      <c r="L978" s="13"/>
+    </row>
+    <row r="979" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E979" s="16"/>
+      <c r="L979" s="13"/>
+    </row>
+    <row r="980" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E980" s="16"/>
+      <c r="L980" s="13"/>
+    </row>
+    <row r="981" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E981" s="16"/>
+      <c r="L981" s="13"/>
+    </row>
+    <row r="982" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E982" s="16"/>
+      <c r="L982" s="13"/>
+    </row>
+    <row r="983" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E983" s="16"/>
+      <c r="L983" s="13"/>
+    </row>
+    <row r="984" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E984" s="16"/>
+      <c r="L984" s="13"/>
+    </row>
+    <row r="985" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E985" s="16"/>
+      <c r="L985" s="13"/>
+    </row>
+    <row r="986" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E986" s="16"/>
+      <c r="L986" s="13"/>
+    </row>
+    <row r="987" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E987" s="16"/>
+      <c r="L987" s="13"/>
+    </row>
+    <row r="988" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E988" s="16"/>
+      <c r="L988" s="13"/>
+    </row>
+    <row r="989" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E989" s="16"/>
+      <c r="L989" s="13"/>
+    </row>
+    <row r="990" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E990" s="16"/>
+      <c r="L990" s="13"/>
+    </row>
+    <row r="991" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E991" s="16"/>
+      <c r="L991" s="13"/>
+    </row>
+    <row r="992" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E992" s="16"/>
+      <c r="L992" s="13"/>
+    </row>
+    <row r="993" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E993" s="16"/>
+      <c r="L993" s="13"/>
+    </row>
+    <row r="994" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E994" s="16"/>
+      <c r="L994" s="13"/>
+    </row>
+    <row r="995" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E995" s="16"/>
+      <c r="L995" s="13"/>
+    </row>
+    <row r="996" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E996" s="16"/>
+      <c r="L996" s="13"/>
+    </row>
+    <row r="997" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E997" s="16"/>
+      <c r="L997" s="13"/>
+    </row>
+    <row r="998" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E998" s="16"/>
+      <c r="L998" s="13"/>
+    </row>
+    <row r="999" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E999" s="16"/>
+      <c r="L999" s="13"/>
+    </row>
+    <row r="1000" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E1000" s="16"/>
+      <c r="L1000" s="13"/>
+    </row>
+    <row r="1001" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E1001" s="16"/>
+      <c r="L1001" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2QF+5lckWYG8vH7WX/tN1hgN/TXSCNCfWyRt3zlpU5ZgUnAkLJ1iXBYDdoKk76LzQUU/P/GOMFG5JoatQpzorA==" saltValue="UzsknvU/61qTbFJl4Xna+w==" spinCount="100000" sheet="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -710,13 +4691,13 @@
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L10</xm:sqref>
+          <xm:sqref>L2:L1001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E10</xm:sqref>
+          <xm:sqref>E2:E1001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
